--- a/Output/PBL/PBL_Contracts.xlsx
+++ b/Output/PBL/PBL_Contracts.xlsx
@@ -22,6 +22,7 @@
     <sheet name="3-2 Plat" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="Veh-Dur" sheetId="15" state="visible" r:id="rId15"/>
     <sheet name="Veh-CurDur" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Veh-UltDur" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
 </workbook>
 </file>
@@ -392,23 +393,25 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="16">
-    <numFmt numFmtId="165" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="166" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="170" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="171" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="174" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="176" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="177" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="178" formatCode="0.00,,,&quot;B&quot;"/>
+  <numFmts count="18">
+    <numFmt numFmtId="193" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="194" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="197" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="198" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="199" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="200" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="201" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="202" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="203" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="204" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="205" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="206" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="207" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="179" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="182" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="183" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="196" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="208" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -444,25 +447,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="193" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="194" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="197" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="198" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="199" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="200" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="201" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="202" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="203" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="205" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="206" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="207" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="208" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5023,86 +5028,86 @@
       <c r="L2" t="s">
         <v>99</v>
       </c>
-      <c r="M2" s="15" t="n">
+      <c r="M2" s="19" t="n">
         <v>17166093</v>
       </c>
-      <c r="N2" s="15" t="n">
+      <c r="N2" s="19" t="n">
         <v>261123279</v>
       </c>
-      <c r="O2" s="15" t="n">
+      <c r="O2" s="19" t="n">
         <v>494384386</v>
       </c>
-      <c r="P2" s="15" t="n">
+      <c r="P2" s="19" t="n">
         <v>459364418</v>
       </c>
-      <c r="Q2" s="15" t="n">
+      <c r="Q2" s="19" t="n">
         <v>1033323768</v>
       </c>
-      <c r="R2" s="15" t="n">
+      <c r="R2" s="19" t="n">
         <v>1524385811</v>
       </c>
-      <c r="S2" s="15" t="n">
+      <c r="S2" s="19" t="n">
         <v>1236499359</v>
       </c>
-      <c r="T2" s="15" t="n">
+      <c r="T2" s="19" t="n">
         <v>1847722334.2188</v>
       </c>
-      <c r="U2" s="15" t="n">
+      <c r="U2" s="19" t="n">
         <v>2452341837.1373</v>
       </c>
-      <c r="V2" s="15" t="n">
+      <c r="V2" s="19" t="n">
         <v>2950119330.4519</v>
       </c>
-      <c r="W2" s="15" t="n">
+      <c r="W2" s="19" t="n">
         <v>3170185286.9155</v>
       </c>
-      <c r="X2" s="15" t="n">
+      <c r="X2" s="19" t="n">
         <v>3405202311.2138</v>
       </c>
-      <c r="Y2" s="15" t="n">
+      <c r="Y2" s="19" t="n">
         <v>3395066314.7941</v>
       </c>
-      <c r="Z2" s="15" t="n">
+      <c r="Z2" s="19" t="n">
         <v>6306742167.0031</v>
       </c>
-      <c r="AA2" s="15" t="n">
+      <c r="AA2" s="19" t="n">
         <v>6831352710.1331</v>
       </c>
-      <c r="AB2" s="15" t="n">
+      <c r="AB2" s="19" t="n">
         <v>6048208774.6288</v>
       </c>
-      <c r="AC2" s="15" t="n">
+      <c r="AC2" s="19" t="n">
         <v>6238739128.7233</v>
       </c>
-      <c r="AD2" s="15" t="n">
+      <c r="AD2" s="19" t="n">
         <v>5549742276.7813</v>
       </c>
-      <c r="AE2" s="15" t="n">
+      <c r="AE2" s="19" t="n">
         <v>5240941882.1364</v>
       </c>
-      <c r="AF2" s="15" t="n">
+      <c r="AF2" s="19" t="n">
         <v>4740955727.0288</v>
       </c>
-      <c r="AG2" s="15" t="n">
+      <c r="AG2" s="19" t="n">
         <v>4553576006.2277</v>
       </c>
-      <c r="AH2" s="15" t="n">
+      <c r="AH2" s="19" t="n">
         <v>5708816170.7507</v>
       </c>
-      <c r="AI2" s="15" t="n">
+      <c r="AI2" s="19" t="n">
         <v>5458485096.4144</v>
       </c>
-      <c r="AJ2" s="15" t="n">
+      <c r="AJ2" s="19" t="n">
         <v>3833154889.8816</v>
       </c>
-      <c r="AK2" s="15" t="n">
+      <c r="AK2" s="19" t="n">
         <v>4015734344.5369</v>
       </c>
-      <c r="AL2" s="15" t="n">
+      <c r="AL2" s="19" t="n">
         <v>3489543196.17</v>
       </c>
-      <c r="AM2" s="15"/>
-      <c r="AN2" s="15"/>
+      <c r="AM2" s="19"/>
+      <c r="AN2" s="19"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -5111,84 +5116,84 @@
       <c r="L3" t="s">
         <v>100</v>
       </c>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15" t="n">
+      <c r="M3" s="19"/>
+      <c r="N3" s="19" t="n">
         <v>3884335</v>
       </c>
-      <c r="O3" s="15" t="n">
+      <c r="O3" s="19" t="n">
         <v>9629741</v>
       </c>
-      <c r="P3" s="15" t="n">
+      <c r="P3" s="19" t="n">
         <v>134413201</v>
       </c>
-      <c r="Q3" s="15" t="n">
+      <c r="Q3" s="19" t="n">
         <v>34531914</v>
       </c>
-      <c r="R3" s="15" t="n">
+      <c r="R3" s="19" t="n">
         <v>16399741</v>
       </c>
-      <c r="S3" s="15" t="n">
+      <c r="S3" s="19" t="n">
         <v>59119623</v>
       </c>
-      <c r="T3" s="15" t="n">
+      <c r="T3" s="19" t="n">
         <v>159624742.5313</v>
       </c>
-      <c r="U3" s="15" t="n">
+      <c r="U3" s="19" t="n">
         <v>431130261.5338</v>
       </c>
-      <c r="V3" s="15" t="n">
+      <c r="V3" s="19" t="n">
         <v>368090961.6903</v>
       </c>
-      <c r="W3" s="15" t="n">
+      <c r="W3" s="19" t="n">
         <v>782951372.9383</v>
       </c>
-      <c r="X3" s="15" t="n">
+      <c r="X3" s="19" t="n">
         <v>1007598391.4929</v>
       </c>
-      <c r="Y3" s="15" t="n">
+      <c r="Y3" s="19" t="n">
         <v>814436485.8476</v>
       </c>
-      <c r="Z3" s="15" t="n">
+      <c r="Z3" s="19" t="n">
         <v>1080262858.8917</v>
       </c>
-      <c r="AA3" s="15" t="n">
+      <c r="AA3" s="19" t="n">
         <v>691358855.6129</v>
       </c>
-      <c r="AB3" s="15" t="n">
+      <c r="AB3" s="19" t="n">
         <v>642067450.6277</v>
       </c>
-      <c r="AC3" s="15" t="n">
+      <c r="AC3" s="19" t="n">
         <v>761277232.339</v>
       </c>
-      <c r="AD3" s="15" t="n">
+      <c r="AD3" s="19" t="n">
         <v>311722321.721</v>
       </c>
-      <c r="AE3" s="15" t="n">
+      <c r="AE3" s="19" t="n">
         <v>157268526.998</v>
       </c>
-      <c r="AF3" s="15" t="n">
+      <c r="AF3" s="19" t="n">
         <v>268562022.7316</v>
       </c>
-      <c r="AG3" s="15" t="n">
+      <c r="AG3" s="19" t="n">
         <v>114915925.4143</v>
       </c>
-      <c r="AH3" s="15" t="n">
+      <c r="AH3" s="19" t="n">
         <v>122114257.0272</v>
       </c>
-      <c r="AI3" s="15" t="n">
+      <c r="AI3" s="19" t="n">
         <v>6102672.0942</v>
       </c>
-      <c r="AJ3" s="15" t="n">
+      <c r="AJ3" s="19" t="n">
         <v>69470199.7888</v>
       </c>
-      <c r="AK3" s="15" t="n">
+      <c r="AK3" s="19" t="n">
         <v>123338542.1923</v>
       </c>
-      <c r="AL3" s="15" t="n">
+      <c r="AL3" s="19" t="n">
         <v>42916928.13</v>
       </c>
-      <c r="AM3" s="15"/>
-      <c r="AN3" s="15"/>
+      <c r="AM3" s="19"/>
+      <c r="AN3" s="19"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -5197,76 +5202,76 @@
       <c r="L4" t="s">
         <v>101</v>
       </c>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15" t="n">
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19" t="n">
         <v>2352000</v>
       </c>
-      <c r="R4" s="15" t="n">
+      <c r="R4" s="19" t="n">
         <v>-558742</v>
       </c>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15" t="n">
+      <c r="S4" s="19"/>
+      <c r="T4" s="19" t="n">
         <v>2646393</v>
       </c>
-      <c r="U4" s="15" t="n">
+      <c r="U4" s="19" t="n">
         <v>44082368</v>
       </c>
-      <c r="V4" s="15" t="n">
+      <c r="V4" s="19" t="n">
         <v>34878551.633</v>
       </c>
-      <c r="W4" s="15" t="n">
+      <c r="W4" s="19" t="n">
         <v>154963706.9416</v>
       </c>
-      <c r="X4" s="15" t="n">
+      <c r="X4" s="19" t="n">
         <v>171095656.9609</v>
       </c>
-      <c r="Y4" s="15" t="n">
+      <c r="Y4" s="19" t="n">
         <v>125611621.6723</v>
       </c>
-      <c r="Z4" s="15" t="n">
+      <c r="Z4" s="19" t="n">
         <v>121019864.0627</v>
       </c>
-      <c r="AA4" s="15" t="n">
+      <c r="AA4" s="19" t="n">
         <v>111822787.1688</v>
       </c>
-      <c r="AB4" s="15" t="n">
+      <c r="AB4" s="19" t="n">
         <v>120680642.395</v>
       </c>
-      <c r="AC4" s="15" t="n">
+      <c r="AC4" s="19" t="n">
         <v>35762274.2</v>
       </c>
-      <c r="AD4" s="15" t="n">
+      <c r="AD4" s="19" t="n">
         <v>18037734.7109</v>
       </c>
-      <c r="AE4" s="15" t="n">
+      <c r="AE4" s="19" t="n">
         <v>10575318.5615</v>
       </c>
-      <c r="AF4" s="15" t="n">
+      <c r="AF4" s="19" t="n">
         <v>1099706.7169</v>
       </c>
-      <c r="AG4" s="15" t="n">
+      <c r="AG4" s="19" t="n">
         <v>541187.5525</v>
       </c>
-      <c r="AH4" s="15" t="n">
+      <c r="AH4" s="19" t="n">
         <v>6280719.4942</v>
       </c>
-      <c r="AI4" s="15" t="n">
+      <c r="AI4" s="19" t="n">
         <v>6269185.6056</v>
       </c>
-      <c r="AJ4" s="15" t="n">
+      <c r="AJ4" s="19" t="n">
         <v>2347206.5553</v>
       </c>
-      <c r="AK4" s="15" t="n">
+      <c r="AK4" s="19" t="n">
         <v>60229135.2294</v>
       </c>
-      <c r="AL4" s="15" t="n">
+      <c r="AL4" s="19" t="n">
         <v>73219610.1</v>
       </c>
-      <c r="AM4" s="15"/>
-      <c r="AN4" s="15"/>
+      <c r="AM4" s="19"/>
+      <c r="AN4" s="19"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -5275,72 +5280,72 @@
       <c r="L5" t="s">
         <v>102</v>
       </c>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15" t="n">
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19" t="n">
         <v>15876584</v>
       </c>
-      <c r="U5" s="15" t="n">
+      <c r="U5" s="19" t="n">
         <v>19890712</v>
       </c>
-      <c r="V5" s="15" t="n">
+      <c r="V5" s="19" t="n">
         <v>76550988</v>
       </c>
-      <c r="W5" s="15" t="n">
+      <c r="W5" s="19" t="n">
         <v>75862983</v>
       </c>
-      <c r="X5" s="15" t="n">
+      <c r="X5" s="19" t="n">
         <v>165775869.8714</v>
       </c>
-      <c r="Y5" s="15" t="n">
+      <c r="Y5" s="19" t="n">
         <v>47949995.4044</v>
       </c>
-      <c r="Z5" s="15" t="n">
+      <c r="Z5" s="19" t="n">
         <v>72464569.5</v>
       </c>
-      <c r="AA5" s="15" t="n">
+      <c r="AA5" s="19" t="n">
         <v>71903616.67</v>
       </c>
-      <c r="AB5" s="15" t="n">
+      <c r="AB5" s="19" t="n">
         <v>112924119.4572</v>
       </c>
-      <c r="AC5" s="15" t="n">
+      <c r="AC5" s="19" t="n">
         <v>243238894.0252</v>
       </c>
-      <c r="AD5" s="15" t="n">
+      <c r="AD5" s="19" t="n">
         <v>143110058.2249</v>
       </c>
-      <c r="AE5" s="15" t="n">
+      <c r="AE5" s="19" t="n">
         <v>55793522.0738</v>
       </c>
-      <c r="AF5" s="15" t="n">
+      <c r="AF5" s="19" t="n">
         <v>57860445.0318</v>
       </c>
-      <c r="AG5" s="15" t="n">
+      <c r="AG5" s="19" t="n">
         <v>54074014.6447</v>
       </c>
-      <c r="AH5" s="15" t="n">
+      <c r="AH5" s="19" t="n">
         <v>291105236.2057</v>
       </c>
-      <c r="AI5" s="15" t="n">
+      <c r="AI5" s="19" t="n">
         <v>332847504.7032</v>
       </c>
-      <c r="AJ5" s="15" t="n">
+      <c r="AJ5" s="19" t="n">
         <v>351037157.6526</v>
       </c>
-      <c r="AK5" s="15" t="n">
+      <c r="AK5" s="19" t="n">
         <v>238631324.9683</v>
       </c>
-      <c r="AL5" s="15" t="n">
+      <c r="AL5" s="19" t="n">
         <v>-9235109.26</v>
       </c>
-      <c r="AM5" s="15"/>
-      <c r="AN5" s="15"/>
+      <c r="AM5" s="19"/>
+      <c r="AN5" s="19"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -5349,74 +5354,74 @@
       <c r="L6" t="s">
         <v>103</v>
       </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15" t="n">
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19" t="n">
         <v>25389496</v>
       </c>
-      <c r="T6" s="15" t="n">
+      <c r="T6" s="19" t="n">
         <v>36717076</v>
       </c>
-      <c r="U6" s="15" t="n">
+      <c r="U6" s="19" t="n">
         <v>51426846.84</v>
       </c>
-      <c r="V6" s="15" t="n">
+      <c r="V6" s="19" t="n">
         <v>90419876.55</v>
       </c>
-      <c r="W6" s="15" t="n">
+      <c r="W6" s="19" t="n">
         <v>108760501.19</v>
       </c>
-      <c r="X6" s="15" t="n">
+      <c r="X6" s="19" t="n">
         <v>93182512.0828</v>
       </c>
-      <c r="Y6" s="15" t="n">
+      <c r="Y6" s="19" t="n">
         <v>56736418.8775</v>
       </c>
-      <c r="Z6" s="15" t="n">
+      <c r="Z6" s="19" t="n">
         <v>333357021.3401</v>
       </c>
-      <c r="AA6" s="15" t="n">
+      <c r="AA6" s="19" t="n">
         <v>57959440.51</v>
       </c>
-      <c r="AB6" s="15" t="n">
+      <c r="AB6" s="19" t="n">
         <v>50847644.86</v>
       </c>
-      <c r="AC6" s="15" t="n">
+      <c r="AC6" s="19" t="n">
         <v>38936002.6618</v>
       </c>
-      <c r="AD6" s="15" t="n">
+      <c r="AD6" s="19" t="n">
         <v>50701248.6411</v>
       </c>
-      <c r="AE6" s="15" t="n">
+      <c r="AE6" s="19" t="n">
         <v>59201684.9749</v>
       </c>
-      <c r="AF6" s="15" t="n">
+      <c r="AF6" s="19" t="n">
         <v>52509312.14</v>
       </c>
-      <c r="AG6" s="15" t="n">
+      <c r="AG6" s="19" t="n">
         <v>11785719.9349</v>
       </c>
-      <c r="AH6" s="15" t="n">
+      <c r="AH6" s="19" t="n">
         <v>10820761.5</v>
       </c>
-      <c r="AI6" s="15" t="n">
+      <c r="AI6" s="19" t="n">
         <v>8511094.67</v>
       </c>
-      <c r="AJ6" s="15" t="n">
+      <c r="AJ6" s="19" t="n">
         <v>13274217.3</v>
       </c>
-      <c r="AK6" s="15" t="n">
+      <c r="AK6" s="19" t="n">
         <v>13058420.0975</v>
       </c>
-      <c r="AL6" s="15" t="n">
+      <c r="AL6" s="19" t="n">
         <v>-1570057.69</v>
       </c>
-      <c r="AM6" s="15"/>
-      <c r="AN6" s="15"/>
+      <c r="AM6" s="19"/>
+      <c r="AN6" s="19"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -5425,78 +5430,78 @@
       <c r="L7" t="s">
         <v>104</v>
       </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15" t="n">
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19" t="n">
         <v>5292234</v>
       </c>
-      <c r="P7" s="15" t="n">
+      <c r="P7" s="19" t="n">
         <v>6687010</v>
       </c>
-      <c r="Q7" s="15" t="n">
+      <c r="Q7" s="19" t="n">
         <v>3275466</v>
       </c>
-      <c r="R7" s="15" t="n">
+      <c r="R7" s="19" t="n">
         <v>25672</v>
       </c>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15" t="n">
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19" t="n">
         <v>34009718.5327</v>
       </c>
-      <c r="V7" s="15" t="n">
+      <c r="V7" s="19" t="n">
         <v>85218804.6113</v>
       </c>
-      <c r="W7" s="15" t="n">
+      <c r="W7" s="19" t="n">
         <v>94613586.697</v>
       </c>
-      <c r="X7" s="15" t="n">
+      <c r="X7" s="19" t="n">
         <v>86091748.1723</v>
       </c>
-      <c r="Y7" s="15" t="n">
+      <c r="Y7" s="19" t="n">
         <v>80773189.3228</v>
       </c>
-      <c r="Z7" s="15" t="n">
+      <c r="Z7" s="19" t="n">
         <v>71708671.3535</v>
       </c>
-      <c r="AA7" s="15" t="n">
+      <c r="AA7" s="19" t="n">
         <v>78763968.19</v>
       </c>
-      <c r="AB7" s="15" t="n">
+      <c r="AB7" s="19" t="n">
         <v>108214566.32</v>
       </c>
-      <c r="AC7" s="15" t="n">
+      <c r="AC7" s="19" t="n">
         <v>80344506.2102</v>
       </c>
-      <c r="AD7" s="15" t="n">
+      <c r="AD7" s="19" t="n">
         <v>53280447.3558</v>
       </c>
-      <c r="AE7" s="15" t="n">
+      <c r="AE7" s="19" t="n">
         <v>61765146.2091</v>
       </c>
-      <c r="AF7" s="15" t="n">
+      <c r="AF7" s="19" t="n">
         <v>60353829.5908</v>
       </c>
-      <c r="AG7" s="15" t="n">
+      <c r="AG7" s="19" t="n">
         <v>109034051.6984</v>
       </c>
-      <c r="AH7" s="15" t="n">
+      <c r="AH7" s="19" t="n">
         <v>110104572.7997</v>
       </c>
-      <c r="AI7" s="15" t="n">
+      <c r="AI7" s="19" t="n">
         <v>106620607.2023</v>
       </c>
-      <c r="AJ7" s="15" t="n">
+      <c r="AJ7" s="19" t="n">
         <v>179101180.2335</v>
       </c>
-      <c r="AK7" s="15" t="n">
+      <c r="AK7" s="19" t="n">
         <v>111192609.9868</v>
       </c>
-      <c r="AL7" s="15" t="n">
+      <c r="AL7" s="19" t="n">
         <v>83990986.62</v>
       </c>
-      <c r="AM7" s="15"/>
-      <c r="AN7" s="15"/>
+      <c r="AM7" s="19"/>
+      <c r="AN7" s="19"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -5505,64 +5510,64 @@
       <c r="L8" t="s">
         <v>105</v>
       </c>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15" t="n">
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19" t="n">
         <v>15200</v>
       </c>
-      <c r="V8" s="15" t="n">
+      <c r="V8" s="19" t="n">
         <v>483844.7852</v>
       </c>
-      <c r="W8" s="15" t="n">
+      <c r="W8" s="19" t="n">
         <v>476477.3887</v>
       </c>
-      <c r="X8" s="15" t="n">
+      <c r="X8" s="19" t="n">
         <v>7881.6602</v>
       </c>
-      <c r="Y8" s="15" t="n">
+      <c r="Y8" s="19" t="n">
         <v>4182368.7109</v>
       </c>
-      <c r="Z8" s="15" t="n">
+      <c r="Z8" s="19" t="n">
         <v>7535814.1303</v>
       </c>
-      <c r="AA8" s="15" t="n">
+      <c r="AA8" s="19" t="n">
         <v>8261231.8339</v>
       </c>
-      <c r="AB8" s="15" t="n">
+      <c r="AB8" s="19" t="n">
         <v>8629917.0256</v>
       </c>
-      <c r="AC8" s="15" t="n">
+      <c r="AC8" s="19" t="n">
         <v>3543358.4001</v>
       </c>
-      <c r="AD8" s="15" t="n">
+      <c r="AD8" s="19" t="n">
         <v>576332.88</v>
       </c>
-      <c r="AE8" s="15" t="n">
+      <c r="AE8" s="19" t="n">
         <v>45866.5117</v>
       </c>
-      <c r="AF8" s="15" t="n">
+      <c r="AF8" s="19" t="n">
         <v>84461</v>
       </c>
-      <c r="AG8" s="15"/>
-      <c r="AH8" s="15"/>
-      <c r="AI8" s="15"/>
-      <c r="AJ8" s="15" t="n">
+      <c r="AG8" s="19"/>
+      <c r="AH8" s="19"/>
+      <c r="AI8" s="19"/>
+      <c r="AJ8" s="19" t="n">
         <v>704.34</v>
       </c>
-      <c r="AK8" s="15" t="n">
+      <c r="AK8" s="19" t="n">
         <v>6755.36</v>
       </c>
-      <c r="AL8" s="15" t="n">
+      <c r="AL8" s="19" t="n">
         <v>-500.22</v>
       </c>
-      <c r="AM8" s="15"/>
-      <c r="AN8" s="15"/>
+      <c r="AM8" s="19"/>
+      <c r="AN8" s="19"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -5571,80 +5576,80 @@
       <c r="L9" t="s">
         <v>106</v>
       </c>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15" t="n">
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19" t="n">
         <v>7542155</v>
       </c>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15" t="n">
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19" t="n">
         <v>28334825</v>
       </c>
-      <c r="R9" s="15" t="n">
+      <c r="R9" s="19" t="n">
         <v>558742</v>
       </c>
-      <c r="S9" s="15" t="n">
+      <c r="S9" s="19" t="n">
         <v>23610833</v>
       </c>
-      <c r="T9" s="15" t="n">
+      <c r="T9" s="19" t="n">
         <v>54034026</v>
       </c>
-      <c r="U9" s="15" t="n">
+      <c r="U9" s="19" t="n">
         <v>27729761.8995</v>
       </c>
-      <c r="V9" s="15" t="n">
+      <c r="V9" s="19" t="n">
         <v>36783772.5176</v>
       </c>
-      <c r="W9" s="15" t="n">
+      <c r="W9" s="19" t="n">
         <v>39527634.6827</v>
       </c>
-      <c r="X9" s="15" t="n">
+      <c r="X9" s="19" t="n">
         <v>47562673.5284</v>
       </c>
-      <c r="Y9" s="15" t="n">
+      <c r="Y9" s="19" t="n">
         <v>66474054.5302</v>
       </c>
-      <c r="Z9" s="15" t="n">
+      <c r="Z9" s="19" t="n">
         <v>125200628.7271</v>
       </c>
-      <c r="AA9" s="15" t="n">
+      <c r="AA9" s="19" t="n">
         <v>135228720.833</v>
       </c>
-      <c r="AB9" s="15" t="n">
+      <c r="AB9" s="19" t="n">
         <v>97671689.3419</v>
       </c>
-      <c r="AC9" s="15" t="n">
+      <c r="AC9" s="19" t="n">
         <v>143102401.3044</v>
       </c>
-      <c r="AD9" s="15" t="n">
+      <c r="AD9" s="19" t="n">
         <v>334136798.7953</v>
       </c>
-      <c r="AE9" s="15" t="n">
+      <c r="AE9" s="19" t="n">
         <v>34642584.03</v>
       </c>
-      <c r="AF9" s="15" t="n">
+      <c r="AF9" s="19" t="n">
         <v>9518039.1719</v>
       </c>
-      <c r="AG9" s="15" t="n">
+      <c r="AG9" s="19" t="n">
         <v>289931555.8568</v>
       </c>
-      <c r="AH9" s="15" t="n">
+      <c r="AH9" s="19" t="n">
         <v>50451282.5002</v>
       </c>
-      <c r="AI9" s="15" t="n">
+      <c r="AI9" s="19" t="n">
         <v>17957983.1859</v>
       </c>
-      <c r="AJ9" s="15" t="n">
+      <c r="AJ9" s="19" t="n">
         <v>15822154.0161</v>
       </c>
-      <c r="AK9" s="15" t="n">
+      <c r="AK9" s="19" t="n">
         <v>35348990.7436</v>
       </c>
-      <c r="AL9" s="15" t="n">
+      <c r="AL9" s="19" t="n">
         <v>68469724.42</v>
       </c>
-      <c r="AM9" s="15"/>
-      <c r="AN9" s="15"/>
+      <c r="AM9" s="19"/>
+      <c r="AN9" s="19"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -5653,72 +5658,72 @@
       <c r="L10" t="s">
         <v>107</v>
       </c>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15" t="n">
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19" t="n">
         <v>5737</v>
       </c>
-      <c r="V10" s="15" t="n">
+      <c r="V10" s="19" t="n">
         <v>72189774</v>
       </c>
-      <c r="W10" s="15" t="n">
+      <c r="W10" s="19" t="n">
         <v>108157463.82</v>
       </c>
-      <c r="X10" s="15" t="n">
+      <c r="X10" s="19" t="n">
         <v>265539501.5196</v>
       </c>
-      <c r="Y10" s="15" t="n">
+      <c r="Y10" s="19" t="n">
         <v>170074743.2442</v>
       </c>
-      <c r="Z10" s="15" t="n">
+      <c r="Z10" s="19" t="n">
         <v>128422628.75</v>
       </c>
-      <c r="AA10" s="15" t="n">
+      <c r="AA10" s="19" t="n">
         <v>309571577.5</v>
       </c>
-      <c r="AB10" s="15" t="n">
+      <c r="AB10" s="19" t="n">
         <v>212896456.86</v>
       </c>
-      <c r="AC10" s="15" t="n">
+      <c r="AC10" s="19" t="n">
         <v>101273628.1</v>
       </c>
-      <c r="AD10" s="15" t="n">
+      <c r="AD10" s="19" t="n">
         <v>305110025.454</v>
       </c>
-      <c r="AE10" s="15" t="n">
+      <c r="AE10" s="19" t="n">
         <v>84820075.0156</v>
       </c>
-      <c r="AF10" s="15" t="n">
+      <c r="AF10" s="19" t="n">
         <v>97408459.9369</v>
       </c>
-      <c r="AG10" s="15" t="n">
+      <c r="AG10" s="19" t="n">
         <v>-284267.6726</v>
       </c>
-      <c r="AH10" s="15" t="n">
+      <c r="AH10" s="19" t="n">
         <v>-5376173.781</v>
       </c>
-      <c r="AI10" s="15" t="n">
+      <c r="AI10" s="19" t="n">
         <v>2148553.7521</v>
       </c>
-      <c r="AJ10" s="15" t="n">
+      <c r="AJ10" s="19" t="n">
         <v>-4344765.9707</v>
       </c>
-      <c r="AK10" s="15" t="n">
+      <c r="AK10" s="19" t="n">
         <v>-1128901.8594</v>
       </c>
-      <c r="AL10" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="15"/>
-      <c r="AN10" s="15"/>
+      <c r="AL10" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="19"/>
+      <c r="AN10" s="19"/>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -5727,78 +5732,78 @@
       <c r="L11" t="s">
         <v>108</v>
       </c>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15" t="n">
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19" t="n">
         <v>7617500</v>
       </c>
-      <c r="S11" s="15" t="n">
+      <c r="S11" s="19" t="n">
         <v>36085703</v>
       </c>
-      <c r="T11" s="15" t="n">
+      <c r="T11" s="19" t="n">
         <v>63525122.2466</v>
       </c>
-      <c r="U11" s="15" t="n">
+      <c r="U11" s="19" t="n">
         <v>45129513.7277</v>
       </c>
-      <c r="V11" s="15" t="n">
+      <c r="V11" s="19" t="n">
         <v>41657426.0282</v>
       </c>
-      <c r="W11" s="15" t="n">
+      <c r="W11" s="19" t="n">
         <v>19637190.6967</v>
       </c>
-      <c r="X11" s="15" t="n">
+      <c r="X11" s="19" t="n">
         <v>53676820.2533</v>
       </c>
-      <c r="Y11" s="15" t="n">
+      <c r="Y11" s="19" t="n">
         <v>62820418.7573</v>
       </c>
-      <c r="Z11" s="15" t="n">
+      <c r="Z11" s="19" t="n">
         <v>59629598.549</v>
       </c>
-      <c r="AA11" s="15" t="n">
+      <c r="AA11" s="19" t="n">
         <v>61207186.98</v>
       </c>
-      <c r="AB11" s="15" t="n">
+      <c r="AB11" s="19" t="n">
         <v>28928278.09</v>
       </c>
-      <c r="AC11" s="15" t="n">
+      <c r="AC11" s="19" t="n">
         <v>42617123.39</v>
       </c>
-      <c r="AD11" s="15" t="n">
+      <c r="AD11" s="19" t="n">
         <v>46249411.0302</v>
       </c>
-      <c r="AE11" s="15" t="n">
+      <c r="AE11" s="19" t="n">
         <v>27518869.6183</v>
       </c>
-      <c r="AF11" s="15" t="n">
+      <c r="AF11" s="19" t="n">
         <v>48848634.0785</v>
       </c>
-      <c r="AG11" s="15" t="n">
+      <c r="AG11" s="19" t="n">
         <v>32964349.0859</v>
       </c>
-      <c r="AH11" s="15" t="n">
+      <c r="AH11" s="19" t="n">
         <v>111048838.1603</v>
       </c>
-      <c r="AI11" s="15" t="n">
+      <c r="AI11" s="19" t="n">
         <v>89053849.1274</v>
       </c>
-      <c r="AJ11" s="15" t="n">
+      <c r="AJ11" s="19" t="n">
         <v>100771752.6846</v>
       </c>
-      <c r="AK11" s="15" t="n">
+      <c r="AK11" s="19" t="n">
         <v>-39867731.2501</v>
       </c>
-      <c r="AL11" s="15" t="n">
+      <c r="AL11" s="19" t="n">
         <v>1902489.33</v>
       </c>
-      <c r="AM11" s="15"/>
-      <c r="AN11" s="15"/>
+      <c r="AM11" s="19"/>
+      <c r="AN11" s="19"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -5807,76 +5812,76 @@
       <c r="L12" t="s">
         <v>109</v>
       </c>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15" t="n">
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19" t="n">
         <v>17978756</v>
       </c>
-      <c r="S12" s="15" t="n">
+      <c r="S12" s="19" t="n">
         <v>1435601</v>
       </c>
-      <c r="T12" s="15" t="n">
+      <c r="T12" s="19" t="n">
         <v>2952224</v>
       </c>
-      <c r="U12" s="15" t="n">
+      <c r="U12" s="19" t="n">
         <v>33318258.8805</v>
       </c>
-      <c r="V12" s="15" t="n">
+      <c r="V12" s="19" t="n">
         <v>27007361.29</v>
       </c>
-      <c r="W12" s="15" t="n">
+      <c r="W12" s="19" t="n">
         <v>38895674.59</v>
       </c>
-      <c r="X12" s="15" t="n">
+      <c r="X12" s="19" t="n">
         <v>157243955.9365</v>
       </c>
-      <c r="Y12" s="15" t="n">
+      <c r="Y12" s="19" t="n">
         <v>143354713.3998</v>
       </c>
-      <c r="Z12" s="15" t="n">
+      <c r="Z12" s="19" t="n">
         <v>194327687.4473</v>
       </c>
-      <c r="AA12" s="15" t="n">
+      <c r="AA12" s="19" t="n">
         <v>313363479.4101</v>
       </c>
-      <c r="AB12" s="15" t="n">
+      <c r="AB12" s="19" t="n">
         <v>298113830.01</v>
       </c>
-      <c r="AC12" s="15" t="n">
+      <c r="AC12" s="19" t="n">
         <v>318535011.38</v>
       </c>
-      <c r="AD12" s="15" t="n">
+      <c r="AD12" s="19" t="n">
         <v>304843638.6239</v>
       </c>
-      <c r="AE12" s="15" t="n">
+      <c r="AE12" s="19" t="n">
         <v>188089958.3489</v>
       </c>
-      <c r="AF12" s="15" t="n">
+      <c r="AF12" s="19" t="n">
         <v>268142136.3195</v>
       </c>
-      <c r="AG12" s="15" t="n">
+      <c r="AG12" s="19" t="n">
         <v>337345578.16</v>
       </c>
-      <c r="AH12" s="15" t="n">
+      <c r="AH12" s="19" t="n">
         <v>365045684.76</v>
       </c>
-      <c r="AI12" s="15" t="n">
+      <c r="AI12" s="19" t="n">
         <v>197368697.37</v>
       </c>
-      <c r="AJ12" s="15" t="n">
+      <c r="AJ12" s="19" t="n">
         <v>72161567.94</v>
       </c>
-      <c r="AK12" s="15" t="n">
+      <c r="AK12" s="19" t="n">
         <v>96091929.07</v>
       </c>
-      <c r="AL12" s="15" t="n">
+      <c r="AL12" s="19" t="n">
         <v>29331200.39</v>
       </c>
-      <c r="AM12" s="15"/>
-      <c r="AN12" s="15"/>
+      <c r="AM12" s="19"/>
+      <c r="AN12" s="19"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -5885,88 +5890,88 @@
       <c r="L13" t="s">
         <v>32</v>
       </c>
-      <c r="M13" s="15" t="str">
+      <c r="M13" s="19" t="str">
         <f>Sum(M2:M12)</f>
       </c>
-      <c r="N13" s="15" t="str">
+      <c r="N13" s="19" t="str">
         <f>Sum(N2:N12)</f>
       </c>
-      <c r="O13" s="15" t="str">
+      <c r="O13" s="19" t="str">
         <f>Sum(O2:O12)</f>
       </c>
-      <c r="P13" s="15" t="str">
+      <c r="P13" s="19" t="str">
         <f>Sum(P2:P12)</f>
       </c>
-      <c r="Q13" s="15" t="str">
+      <c r="Q13" s="19" t="str">
         <f>Sum(Q2:Q12)</f>
       </c>
-      <c r="R13" s="15" t="str">
+      <c r="R13" s="19" t="str">
         <f>Sum(R2:R12)</f>
       </c>
-      <c r="S13" s="15" t="str">
+      <c r="S13" s="19" t="str">
         <f>Sum(S2:S12)</f>
       </c>
-      <c r="T13" s="15" t="str">
+      <c r="T13" s="19" t="str">
         <f>Sum(T2:T12)</f>
       </c>
-      <c r="U13" s="15" t="str">
+      <c r="U13" s="19" t="str">
         <f>Sum(U2:U12)</f>
       </c>
-      <c r="V13" s="15" t="str">
+      <c r="V13" s="19" t="str">
         <f>Sum(V2:V12)</f>
       </c>
-      <c r="W13" s="15" t="str">
+      <c r="W13" s="19" t="str">
         <f>Sum(W2:W12)</f>
       </c>
-      <c r="X13" s="15" t="str">
+      <c r="X13" s="19" t="str">
         <f>Sum(X2:X12)</f>
       </c>
-      <c r="Y13" s="15" t="str">
+      <c r="Y13" s="19" t="str">
         <f>Sum(Y2:Y12)</f>
       </c>
-      <c r="Z13" s="15" t="str">
+      <c r="Z13" s="19" t="str">
         <f>Sum(Z2:Z12)</f>
       </c>
-      <c r="AA13" s="15" t="str">
+      <c r="AA13" s="19" t="str">
         <f>Sum(AA2:AA12)</f>
       </c>
-      <c r="AB13" s="15" t="str">
+      <c r="AB13" s="19" t="str">
         <f>Sum(AB2:AB12)</f>
       </c>
-      <c r="AC13" s="15" t="str">
+      <c r="AC13" s="19" t="str">
         <f>Sum(AC2:AC12)</f>
       </c>
-      <c r="AD13" s="15" t="str">
+      <c r="AD13" s="19" t="str">
         <f>Sum(AD2:AD12)</f>
       </c>
-      <c r="AE13" s="15" t="str">
+      <c r="AE13" s="19" t="str">
         <f>Sum(AE2:AE12)</f>
       </c>
-      <c r="AF13" s="15" t="str">
+      <c r="AF13" s="19" t="str">
         <f>Sum(AF2:AF12)</f>
       </c>
-      <c r="AG13" s="15" t="str">
+      <c r="AG13" s="19" t="str">
         <f>Sum(AG2:AG12)</f>
       </c>
-      <c r="AH13" s="15" t="str">
+      <c r="AH13" s="19" t="str">
         <f>Sum(AH2:AH12)</f>
       </c>
-      <c r="AI13" s="15" t="str">
+      <c r="AI13" s="19" t="str">
         <f>Sum(AI2:AI12)</f>
       </c>
-      <c r="AJ13" s="15" t="str">
+      <c r="AJ13" s="19" t="str">
         <f>Sum(AJ2:AJ12)</f>
       </c>
-      <c r="AK13" s="15" t="str">
+      <c r="AK13" s="19" t="str">
         <f>Sum(AK2:AK12)</f>
       </c>
-      <c r="AL13" s="15" t="str">
+      <c r="AL13" s="19" t="str">
         <f>Sum(AL2:AL12)</f>
       </c>
-      <c r="AM13" s="15" t="str">
+      <c r="AM13" s="19" t="str">
         <f>Sum(AM2:AM12)</f>
       </c>
-      <c r="AN13" s="15"/>
+      <c r="AN13" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11497,6 +11502,2774 @@
         <f>Sum(AN2:AN38)</f>
       </c>
       <c r="AO39" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>N1</f>
+      </c>
+      <c r="M1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>N2</f>
+      </c>
+      <c r="M2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18" t="n">
+        <v>249975</v>
+      </c>
+      <c r="AB2" s="18" t="n">
+        <v>1165333.0605</v>
+      </c>
+      <c r="AC2" s="18" t="n">
+        <v>49080122.34</v>
+      </c>
+      <c r="AD2" s="18" t="n">
+        <v>541408.44</v>
+      </c>
+      <c r="AE2" s="18" t="n">
+        <v>479674.9399</v>
+      </c>
+      <c r="AF2" s="18" t="n">
+        <v>830800</v>
+      </c>
+      <c r="AG2" s="18" t="n">
+        <v>11836</v>
+      </c>
+      <c r="AH2" s="18" t="n">
+        <v>29446</v>
+      </c>
+      <c r="AI2" s="18"/>
+      <c r="AJ2" s="18"/>
+      <c r="AK2" s="18" t="n">
+        <v>-11178.46</v>
+      </c>
+      <c r="AL2" s="18"/>
+      <c r="AM2" s="18"/>
+      <c r="AN2" s="18"/>
+      <c r="AO2" s="18"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>N3</f>
+      </c>
+      <c r="M3" t="s">
+        <v>67</v>
+      </c>
+      <c r="N3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18" t="n">
+        <v>3545.14</v>
+      </c>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="18"/>
+      <c r="AJ3" s="18"/>
+      <c r="AK3" s="18"/>
+      <c r="AL3" s="18" t="n">
+        <v>4786.2899</v>
+      </c>
+      <c r="AM3" s="18" t="n">
+        <v>25276.1298</v>
+      </c>
+      <c r="AN3" s="18"/>
+      <c r="AO3" s="18"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>N4</f>
+      </c>
+      <c r="M4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18" t="n">
+        <v>40495</v>
+      </c>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18" t="n">
+        <v>18089586.9977</v>
+      </c>
+      <c r="X4" s="18" t="n">
+        <v>62107227.66</v>
+      </c>
+      <c r="Y4" s="18" t="n">
+        <v>48413139.0899</v>
+      </c>
+      <c r="Z4" s="18" t="n">
+        <v>36634163.6996</v>
+      </c>
+      <c r="AA4" s="18" t="n">
+        <v>41940985.1511</v>
+      </c>
+      <c r="AB4" s="18" t="n">
+        <v>143547451.0677</v>
+      </c>
+      <c r="AC4" s="18" t="n">
+        <v>33014338.3814</v>
+      </c>
+      <c r="AD4" s="18" t="n">
+        <v>3641864.65</v>
+      </c>
+      <c r="AE4" s="18" t="n">
+        <v>181043</v>
+      </c>
+      <c r="AF4" s="18" t="n">
+        <v>-11490.3604</v>
+      </c>
+      <c r="AG4" s="18" t="n">
+        <v>-709000</v>
+      </c>
+      <c r="AH4" s="18" t="n">
+        <v>-500060.6094</v>
+      </c>
+      <c r="AI4" s="18" t="n">
+        <v>-2470507.75</v>
+      </c>
+      <c r="AJ4" s="18" t="n">
+        <v>-3788.8601</v>
+      </c>
+      <c r="AK4" s="18"/>
+      <c r="AL4" s="18"/>
+      <c r="AM4" s="18"/>
+      <c r="AN4" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="18"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>N5</f>
+      </c>
+      <c r="M5" t="s">
+        <v>67</v>
+      </c>
+      <c r="N5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18" t="n">
+        <v>36809</v>
+      </c>
+      <c r="W5" s="18" t="n">
+        <v>5737</v>
+      </c>
+      <c r="X5" s="18" t="n">
+        <v>47640</v>
+      </c>
+      <c r="Y5" s="18" t="n">
+        <v>22048.54</v>
+      </c>
+      <c r="Z5" s="18" t="n">
+        <v>6781.2598</v>
+      </c>
+      <c r="AA5" s="18" t="n">
+        <v>2500</v>
+      </c>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="18" t="n">
+        <v>71309</v>
+      </c>
+      <c r="AG5" s="18" t="n">
+        <v>101257.3515</v>
+      </c>
+      <c r="AH5" s="18" t="n">
+        <v>84461</v>
+      </c>
+      <c r="AI5" s="18" t="n">
+        <v>230398.95</v>
+      </c>
+      <c r="AJ5" s="18" t="n">
+        <v>70814.75</v>
+      </c>
+      <c r="AK5" s="18" t="n">
+        <v>15332</v>
+      </c>
+      <c r="AL5" s="18"/>
+      <c r="AM5" s="18"/>
+      <c r="AN5" s="18"/>
+      <c r="AO5" s="18"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <f>M6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>N6</f>
+      </c>
+      <c r="M6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18" t="n">
+        <v>3159094</v>
+      </c>
+      <c r="R6" s="18" t="n">
+        <v>2480610</v>
+      </c>
+      <c r="S6" s="18" t="n">
+        <v>918769</v>
+      </c>
+      <c r="T6" s="18" t="n">
+        <v>9999677</v>
+      </c>
+      <c r="U6" s="18" t="n">
+        <v>234388</v>
+      </c>
+      <c r="V6" s="18" t="n">
+        <v>1935456.7366</v>
+      </c>
+      <c r="W6" s="18" t="n">
+        <v>43091768.8184</v>
+      </c>
+      <c r="X6" s="18" t="n">
+        <v>114560453.3443</v>
+      </c>
+      <c r="Y6" s="18" t="n">
+        <v>57419506.8328</v>
+      </c>
+      <c r="Z6" s="18" t="n">
+        <v>210546180.9493</v>
+      </c>
+      <c r="AA6" s="18" t="n">
+        <v>129053773.0115</v>
+      </c>
+      <c r="AB6" s="18" t="n">
+        <v>140939152.2605</v>
+      </c>
+      <c r="AC6" s="18" t="n">
+        <v>294300220.87</v>
+      </c>
+      <c r="AD6" s="18" t="n">
+        <v>173085013.28</v>
+      </c>
+      <c r="AE6" s="18" t="n">
+        <v>390065010.0549</v>
+      </c>
+      <c r="AF6" s="18" t="n">
+        <v>112525150.4727</v>
+      </c>
+      <c r="AG6" s="18" t="n">
+        <v>57330743.9605</v>
+      </c>
+      <c r="AH6" s="18" t="n">
+        <v>83722789.9246</v>
+      </c>
+      <c r="AI6" s="18" t="n">
+        <v>281572.9788</v>
+      </c>
+      <c r="AJ6" s="18" t="n">
+        <v>275043052.1275</v>
+      </c>
+      <c r="AK6" s="18" t="n">
+        <v>73325929.3095</v>
+      </c>
+      <c r="AL6" s="18" t="n">
+        <v>193140644.2627</v>
+      </c>
+      <c r="AM6" s="18" t="n">
+        <v>223484.9765</v>
+      </c>
+      <c r="AN6" s="18" t="n">
+        <v>-1949182</v>
+      </c>
+      <c r="AO6" s="18"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>M7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>N7</f>
+      </c>
+      <c r="M7" t="s">
+        <v>68</v>
+      </c>
+      <c r="N7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18" t="n">
+        <v>799264</v>
+      </c>
+      <c r="AA7" s="18" t="n">
+        <v>33810218</v>
+      </c>
+      <c r="AB7" s="18" t="n">
+        <v>535437862</v>
+      </c>
+      <c r="AC7" s="18" t="n">
+        <v>339312493.39</v>
+      </c>
+      <c r="AD7" s="18" t="n">
+        <v>599889113.8763</v>
+      </c>
+      <c r="AE7" s="18" t="n">
+        <v>599300989.592</v>
+      </c>
+      <c r="AF7" s="18" t="n">
+        <v>627281081.73</v>
+      </c>
+      <c r="AG7" s="18" t="n">
+        <v>10477793.8144</v>
+      </c>
+      <c r="AH7" s="18" t="n">
+        <v>-4396458.4704</v>
+      </c>
+      <c r="AI7" s="18" t="n">
+        <v>-21727814.8848</v>
+      </c>
+      <c r="AJ7" s="18" t="n">
+        <v>-20164028.0539</v>
+      </c>
+      <c r="AK7" s="18" t="n">
+        <v>-12335756.6899</v>
+      </c>
+      <c r="AL7" s="18" t="n">
+        <v>-1093456.4207</v>
+      </c>
+      <c r="AM7" s="18" t="n">
+        <v>-501240.0577</v>
+      </c>
+      <c r="AN7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="18"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <f>M8</f>
+      </c>
+      <c r="B8" t="str">
+        <f>N8</f>
+      </c>
+      <c r="M8" t="s">
+        <v>68</v>
+      </c>
+      <c r="N8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18" t="n">
+        <v>15916250</v>
+      </c>
+      <c r="T8" s="18" t="n">
+        <v>558742</v>
+      </c>
+      <c r="U8" s="18" t="n">
+        <v>16073180</v>
+      </c>
+      <c r="V8" s="18" t="n">
+        <v>52090522</v>
+      </c>
+      <c r="W8" s="18" t="n">
+        <v>196662456.89</v>
+      </c>
+      <c r="X8" s="18" t="n">
+        <v>283495048.31</v>
+      </c>
+      <c r="Y8" s="18" t="n">
+        <v>312381807.8</v>
+      </c>
+      <c r="Z8" s="18" t="n">
+        <v>438372582.7813</v>
+      </c>
+      <c r="AA8" s="18" t="n">
+        <v>458773576.3078</v>
+      </c>
+      <c r="AB8" s="18" t="n">
+        <v>423745242.2117</v>
+      </c>
+      <c r="AC8" s="18" t="n">
+        <v>367829435.67</v>
+      </c>
+      <c r="AD8" s="18" t="n">
+        <v>301890421.31</v>
+      </c>
+      <c r="AE8" s="18" t="n">
+        <v>572338951.68</v>
+      </c>
+      <c r="AF8" s="18" t="n">
+        <v>204023815.5198</v>
+      </c>
+      <c r="AG8" s="18" t="n">
+        <v>39826843.943</v>
+      </c>
+      <c r="AH8" s="18" t="n">
+        <v>-5505042.34</v>
+      </c>
+      <c r="AI8" s="18" t="n">
+        <v>1077986</v>
+      </c>
+      <c r="AJ8" s="18" t="n">
+        <v>-4895473.83</v>
+      </c>
+      <c r="AK8" s="18" t="n">
+        <v>-5894556.32</v>
+      </c>
+      <c r="AL8" s="18" t="n">
+        <v>-167031.17</v>
+      </c>
+      <c r="AM8" s="18" t="n">
+        <v>-784778.23</v>
+      </c>
+      <c r="AN8" s="18" t="n">
+        <v>-2408455.93</v>
+      </c>
+      <c r="AO8" s="18"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <f>M9</f>
+      </c>
+      <c r="B9" t="str">
+        <f>N9</f>
+      </c>
+      <c r="M9" t="s">
+        <v>68</v>
+      </c>
+      <c r="N9" t="s">
+        <v>40</v>
+      </c>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18" t="n">
+        <v>99950</v>
+      </c>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="18" t="n">
+        <v>278342</v>
+      </c>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="18"/>
+      <c r="AG9" s="18"/>
+      <c r="AH9" s="18"/>
+      <c r="AI9" s="18"/>
+      <c r="AJ9" s="18"/>
+      <c r="AK9" s="18"/>
+      <c r="AL9" s="18"/>
+      <c r="AM9" s="18"/>
+      <c r="AN9" s="18"/>
+      <c r="AO9" s="18"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="B10" t="str">
+        <f>N10</f>
+      </c>
+      <c r="M10" t="s">
+        <v>68</v>
+      </c>
+      <c r="N10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18" t="n">
+        <v>176720.9063</v>
+      </c>
+      <c r="W10" s="18" t="n">
+        <v>98299983.8206</v>
+      </c>
+      <c r="X10" s="18" t="n">
+        <v>160519329.4722</v>
+      </c>
+      <c r="Y10" s="18" t="n">
+        <v>191151079.5201</v>
+      </c>
+      <c r="Z10" s="18" t="n">
+        <v>160620300.9672</v>
+      </c>
+      <c r="AA10" s="18" t="n">
+        <v>133281085.8835</v>
+      </c>
+      <c r="AB10" s="18" t="n">
+        <v>84996381.1818</v>
+      </c>
+      <c r="AC10" s="18" t="n">
+        <v>130298790.1944</v>
+      </c>
+      <c r="AD10" s="18" t="n">
+        <v>75814191.0269</v>
+      </c>
+      <c r="AE10" s="18" t="n">
+        <v>2805354.23</v>
+      </c>
+      <c r="AF10" s="18" t="n">
+        <v>1632289.2738</v>
+      </c>
+      <c r="AG10" s="18" t="n">
+        <v>14146950.6308</v>
+      </c>
+      <c r="AH10" s="18" t="n">
+        <v>-131002.3438</v>
+      </c>
+      <c r="AI10" s="18" t="n">
+        <v>-5440027.25</v>
+      </c>
+      <c r="AJ10" s="18" t="n">
+        <v>1334779.08</v>
+      </c>
+      <c r="AK10" s="18" t="n">
+        <v>-37331.1211</v>
+      </c>
+      <c r="AL10" s="18"/>
+      <c r="AM10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="18"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <f>M11</f>
+      </c>
+      <c r="B11" t="str">
+        <f>N11</f>
+      </c>
+      <c r="M11" t="s">
+        <v>68</v>
+      </c>
+      <c r="N11" t="s">
+        <v>42</v>
+      </c>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18" t="n">
+        <v>2171974</v>
+      </c>
+      <c r="Q11" s="18" t="n">
+        <v>16947755</v>
+      </c>
+      <c r="R11" s="18" t="n">
+        <v>123586147</v>
+      </c>
+      <c r="S11" s="18" t="n">
+        <v>207840405</v>
+      </c>
+      <c r="T11" s="18" t="n">
+        <v>175113225</v>
+      </c>
+      <c r="U11" s="18" t="n">
+        <v>196176860</v>
+      </c>
+      <c r="V11" s="18" t="n">
+        <v>386622061.6875</v>
+      </c>
+      <c r="W11" s="18" t="n">
+        <v>331332091.7359</v>
+      </c>
+      <c r="X11" s="18" t="n">
+        <v>672339724.8563</v>
+      </c>
+      <c r="Y11" s="18" t="n">
+        <v>477384144.9434</v>
+      </c>
+      <c r="Z11" s="18" t="n">
+        <v>660637627.0975</v>
+      </c>
+      <c r="AA11" s="18" t="n">
+        <v>385768639.9833</v>
+      </c>
+      <c r="AB11" s="18" t="n">
+        <v>652463248.8706</v>
+      </c>
+      <c r="AC11" s="18" t="n">
+        <v>924013449.5201</v>
+      </c>
+      <c r="AD11" s="18" t="n">
+        <v>385251079.836</v>
+      </c>
+      <c r="AE11" s="18" t="n">
+        <v>784607498.0578</v>
+      </c>
+      <c r="AF11" s="18" t="n">
+        <v>789764368.1153</v>
+      </c>
+      <c r="AG11" s="18" t="n">
+        <v>1071364545.4145</v>
+      </c>
+      <c r="AH11" s="18" t="n">
+        <v>532771424.4934</v>
+      </c>
+      <c r="AI11" s="18" t="n">
+        <v>558477748.5019</v>
+      </c>
+      <c r="AJ11" s="18" t="n">
+        <v>419655367.6536</v>
+      </c>
+      <c r="AK11" s="18" t="n">
+        <v>422318198.6999</v>
+      </c>
+      <c r="AL11" s="18" t="n">
+        <v>449343977.265</v>
+      </c>
+      <c r="AM11" s="18" t="n">
+        <v>592991538.2594</v>
+      </c>
+      <c r="AN11" s="18" t="n">
+        <v>851300941.78</v>
+      </c>
+      <c r="AO11" s="18"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <f>M12</f>
+      </c>
+      <c r="B12" t="str">
+        <f>N12</f>
+      </c>
+      <c r="M12" t="s">
+        <v>69</v>
+      </c>
+      <c r="N12" t="s">
+        <v>39</v>
+      </c>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18" t="n">
+        <v>14034835</v>
+      </c>
+      <c r="AA12" s="18" t="n">
+        <v>31335583</v>
+      </c>
+      <c r="AB12" s="18" t="n">
+        <v>385488558.48</v>
+      </c>
+      <c r="AC12" s="18" t="n">
+        <v>495764156.3525</v>
+      </c>
+      <c r="AD12" s="18" t="n">
+        <v>381773752.0313</v>
+      </c>
+      <c r="AE12" s="18" t="n">
+        <v>599013636.9203</v>
+      </c>
+      <c r="AF12" s="18" t="n">
+        <v>297218419.1753</v>
+      </c>
+      <c r="AG12" s="18" t="n">
+        <v>41637887.546</v>
+      </c>
+      <c r="AH12" s="18" t="n">
+        <v>-121304.4054</v>
+      </c>
+      <c r="AI12" s="18" t="n">
+        <v>-220639.4702</v>
+      </c>
+      <c r="AJ12" s="18" t="n">
+        <v>32374043.4913</v>
+      </c>
+      <c r="AK12" s="18" t="n">
+        <v>-1078516.4409</v>
+      </c>
+      <c r="AL12" s="18" t="n">
+        <v>-125779.6904</v>
+      </c>
+      <c r="AM12" s="18" t="n">
+        <v>-12291.21</v>
+      </c>
+      <c r="AN12" s="18" t="n">
+        <v>-248155.64</v>
+      </c>
+      <c r="AO12" s="18"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <f>M13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>N13</f>
+      </c>
+      <c r="M13" t="s">
+        <v>69</v>
+      </c>
+      <c r="N13" t="s">
+        <v>36</v>
+      </c>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18" t="n">
+        <v>124438980</v>
+      </c>
+      <c r="X13" s="18" t="n">
+        <v>150593455.28</v>
+      </c>
+      <c r="Y13" s="18" t="n">
+        <v>156656440.45</v>
+      </c>
+      <c r="Z13" s="18" t="n">
+        <v>149644608.3974</v>
+      </c>
+      <c r="AA13" s="18" t="n">
+        <v>142254412.5454</v>
+      </c>
+      <c r="AB13" s="18" t="n">
+        <v>36465114.1094</v>
+      </c>
+      <c r="AC13" s="18" t="n">
+        <v>192159409.22</v>
+      </c>
+      <c r="AD13" s="18" t="n">
+        <v>224878075.3719</v>
+      </c>
+      <c r="AE13" s="18" t="n">
+        <v>260149116.3975</v>
+      </c>
+      <c r="AF13" s="18" t="n">
+        <v>364034176.1842</v>
+      </c>
+      <c r="AG13" s="18" t="n">
+        <v>277648278.6935</v>
+      </c>
+      <c r="AH13" s="18" t="n">
+        <v>325155222.43</v>
+      </c>
+      <c r="AI13" s="18" t="n">
+        <v>380213466.53</v>
+      </c>
+      <c r="AJ13" s="18" t="n">
+        <v>380192819.31</v>
+      </c>
+      <c r="AK13" s="18" t="n">
+        <v>846821375.18</v>
+      </c>
+      <c r="AL13" s="18" t="n">
+        <v>889807105.57</v>
+      </c>
+      <c r="AM13" s="18" t="n">
+        <v>943229308.53</v>
+      </c>
+      <c r="AN13" s="18" t="n">
+        <v>1147757020</v>
+      </c>
+      <c r="AO13" s="18"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <f>M14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>N14</f>
+      </c>
+      <c r="M14" t="s">
+        <v>69</v>
+      </c>
+      <c r="N14" t="s">
+        <v>40</v>
+      </c>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18" t="n">
+        <v>969700</v>
+      </c>
+      <c r="V14" s="18" t="n">
+        <v>-9823</v>
+      </c>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="18"/>
+      <c r="AD14" s="18"/>
+      <c r="AE14" s="18"/>
+      <c r="AF14" s="18"/>
+      <c r="AG14" s="18" t="n">
+        <v>101551.1875</v>
+      </c>
+      <c r="AH14" s="18"/>
+      <c r="AI14" s="18"/>
+      <c r="AJ14" s="18"/>
+      <c r="AK14" s="18"/>
+      <c r="AL14" s="18"/>
+      <c r="AM14" s="18"/>
+      <c r="AN14" s="18"/>
+      <c r="AO14" s="18"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <f>M15</f>
+      </c>
+      <c r="B15" t="str">
+        <f>N15</f>
+      </c>
+      <c r="M15" t="s">
+        <v>69</v>
+      </c>
+      <c r="N15" t="s">
+        <v>41</v>
+      </c>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18" t="n">
+        <v>9120424</v>
+      </c>
+      <c r="W15" s="18" t="n">
+        <v>44885733.0725</v>
+      </c>
+      <c r="X15" s="18" t="n">
+        <v>63501111.2532</v>
+      </c>
+      <c r="Y15" s="18" t="n">
+        <v>140703745.7593</v>
+      </c>
+      <c r="Z15" s="18" t="n">
+        <v>234642251.945</v>
+      </c>
+      <c r="AA15" s="18" t="n">
+        <v>259297860.0262</v>
+      </c>
+      <c r="AB15" s="18" t="n">
+        <v>88421667.9115</v>
+      </c>
+      <c r="AC15" s="18" t="n">
+        <v>73920995.9226</v>
+      </c>
+      <c r="AD15" s="18" t="n">
+        <v>21714396.74</v>
+      </c>
+      <c r="AE15" s="18" t="n">
+        <v>16062739.9489</v>
+      </c>
+      <c r="AF15" s="18" t="n">
+        <v>76613770.2864</v>
+      </c>
+      <c r="AG15" s="18" t="n">
+        <v>74910349.5874</v>
+      </c>
+      <c r="AH15" s="18" t="n">
+        <v>77229066.8473</v>
+      </c>
+      <c r="AI15" s="18" t="n">
+        <v>1999663.6901</v>
+      </c>
+      <c r="AJ15" s="18" t="n">
+        <v>2134257.9551</v>
+      </c>
+      <c r="AK15" s="18" t="n">
+        <v>445284.9973</v>
+      </c>
+      <c r="AL15" s="18" t="n">
+        <v>-3857360.5</v>
+      </c>
+      <c r="AM15" s="18" t="n">
+        <v>-1128901.8594</v>
+      </c>
+      <c r="AN15" s="18"/>
+      <c r="AO15" s="18"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <f>M16</f>
+      </c>
+      <c r="B16" t="str">
+        <f>N16</f>
+      </c>
+      <c r="M16" t="s">
+        <v>69</v>
+      </c>
+      <c r="N16" t="s">
+        <v>42</v>
+      </c>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18" t="n">
+        <v>10931317</v>
+      </c>
+      <c r="Q16" s="18" t="n">
+        <v>97966558</v>
+      </c>
+      <c r="R16" s="18" t="n">
+        <v>54190694</v>
+      </c>
+      <c r="S16" s="18" t="n">
+        <v>1271901</v>
+      </c>
+      <c r="T16" s="18" t="n">
+        <v>4371086</v>
+      </c>
+      <c r="U16" s="18" t="n">
+        <v>14969064</v>
+      </c>
+      <c r="V16" s="18" t="n">
+        <v>43364572</v>
+      </c>
+      <c r="W16" s="18" t="n">
+        <v>228420703.4404</v>
+      </c>
+      <c r="X16" s="18" t="n">
+        <v>301573590.0339</v>
+      </c>
+      <c r="Y16" s="18" t="n">
+        <v>268835982.8735</v>
+      </c>
+      <c r="Z16" s="18" t="n">
+        <v>285846414.6563</v>
+      </c>
+      <c r="AA16" s="18" t="n">
+        <v>345837454.7909</v>
+      </c>
+      <c r="AB16" s="18" t="n">
+        <v>1954657204.2872</v>
+      </c>
+      <c r="AC16" s="18" t="n">
+        <v>1528425674.8425</v>
+      </c>
+      <c r="AD16" s="18" t="n">
+        <v>1498110486.962</v>
+      </c>
+      <c r="AE16" s="18" t="n">
+        <v>911493755.7913</v>
+      </c>
+      <c r="AF16" s="18" t="n">
+        <v>717749815.417</v>
+      </c>
+      <c r="AG16" s="18" t="n">
+        <v>467875168.897</v>
+      </c>
+      <c r="AH16" s="18" t="n">
+        <v>250768579.9733</v>
+      </c>
+      <c r="AI16" s="18" t="n">
+        <v>403618315.396</v>
+      </c>
+      <c r="AJ16" s="18" t="n">
+        <v>537130334.1777</v>
+      </c>
+      <c r="AK16" s="18" t="n">
+        <v>608229840.6948</v>
+      </c>
+      <c r="AL16" s="18" t="n">
+        <v>54863345.3617</v>
+      </c>
+      <c r="AM16" s="18" t="n">
+        <v>-106954800.1492</v>
+      </c>
+      <c r="AN16" s="18" t="n">
+        <v>22895977.29</v>
+      </c>
+      <c r="AO16" s="18"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <f>M17</f>
+      </c>
+      <c r="B17" t="str">
+        <f>N17</f>
+      </c>
+      <c r="M17" t="s">
+        <v>70</v>
+      </c>
+      <c r="N17" t="s">
+        <v>39</v>
+      </c>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="18"/>
+      <c r="Z17" s="18" t="n">
+        <v>721783</v>
+      </c>
+      <c r="AA17" s="18" t="n">
+        <v>17937473</v>
+      </c>
+      <c r="AB17" s="18" t="n">
+        <v>49861330</v>
+      </c>
+      <c r="AC17" s="18" t="n">
+        <v>47466652</v>
+      </c>
+      <c r="AD17" s="18" t="n">
+        <v>24123108.24</v>
+      </c>
+      <c r="AE17" s="18" t="n">
+        <v>37160463.03</v>
+      </c>
+      <c r="AF17" s="18" t="n">
+        <v>61026452</v>
+      </c>
+      <c r="AG17" s="18" t="n">
+        <v>9816974.4281</v>
+      </c>
+      <c r="AH17" s="18" t="n">
+        <v>-60376.5812</v>
+      </c>
+      <c r="AI17" s="18"/>
+      <c r="AJ17" s="18" t="n">
+        <v>-293082.8232</v>
+      </c>
+      <c r="AK17" s="18" t="n">
+        <v>-160273.4997</v>
+      </c>
+      <c r="AL17" s="18" t="n">
+        <v>-40747.8008</v>
+      </c>
+      <c r="AM17" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="18"/>
+      <c r="AO17" s="18"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <f>M18</f>
+      </c>
+      <c r="B18" t="str">
+        <f>N18</f>
+      </c>
+      <c r="M18" t="s">
+        <v>70</v>
+      </c>
+      <c r="N18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="18" t="n">
+        <v>37684308</v>
+      </c>
+      <c r="AA18" s="18" t="n">
+        <v>10632356</v>
+      </c>
+      <c r="AB18" s="18" t="n">
+        <v>22425274</v>
+      </c>
+      <c r="AC18" s="18" t="n">
+        <v>319200</v>
+      </c>
+      <c r="AD18" s="18"/>
+      <c r="AE18" s="18"/>
+      <c r="AF18" s="18"/>
+      <c r="AG18" s="18"/>
+      <c r="AH18" s="18"/>
+      <c r="AI18" s="18"/>
+      <c r="AJ18" s="18"/>
+      <c r="AK18" s="18"/>
+      <c r="AL18" s="18"/>
+      <c r="AM18" s="18"/>
+      <c r="AN18" s="18"/>
+      <c r="AO18" s="18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <f>M19</f>
+      </c>
+      <c r="B19" t="str">
+        <f>N19</f>
+      </c>
+      <c r="M19" t="s">
+        <v>70</v>
+      </c>
+      <c r="N19" t="s">
+        <v>40</v>
+      </c>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="18" t="n">
+        <v>79950</v>
+      </c>
+      <c r="AA19" s="18" t="n">
+        <v>-86799.4063</v>
+      </c>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="18"/>
+      <c r="AD19" s="18"/>
+      <c r="AE19" s="18"/>
+      <c r="AF19" s="18"/>
+      <c r="AG19" s="18"/>
+      <c r="AH19" s="18"/>
+      <c r="AI19" s="18"/>
+      <c r="AJ19" s="18"/>
+      <c r="AK19" s="18"/>
+      <c r="AL19" s="18"/>
+      <c r="AM19" s="18" t="n">
+        <v>1423.44</v>
+      </c>
+      <c r="AN19" s="18"/>
+      <c r="AO19" s="18"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <f>M20</f>
+      </c>
+      <c r="B20" t="str">
+        <f>N20</f>
+      </c>
+      <c r="M20" t="s">
+        <v>70</v>
+      </c>
+      <c r="N20" t="s">
+        <v>41</v>
+      </c>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18" t="n">
+        <v>36631943</v>
+      </c>
+      <c r="W20" s="18" t="n">
+        <v>58975083.3986</v>
+      </c>
+      <c r="X20" s="18" t="n">
+        <v>57042607.9555</v>
+      </c>
+      <c r="Y20" s="18" t="n">
+        <v>127674029.6426</v>
+      </c>
+      <c r="Z20" s="18" t="n">
+        <v>54886644.7102</v>
+      </c>
+      <c r="AA20" s="18" t="n">
+        <v>41540992.2587</v>
+      </c>
+      <c r="AB20" s="18" t="n">
+        <v>37902169.3812</v>
+      </c>
+      <c r="AC20" s="18" t="n">
+        <v>89289641.3706</v>
+      </c>
+      <c r="AD20" s="18" t="n">
+        <v>62438850.4497</v>
+      </c>
+      <c r="AE20" s="18" t="n">
+        <v>19061146.72</v>
+      </c>
+      <c r="AF20" s="18" t="n">
+        <v>21479959.8106</v>
+      </c>
+      <c r="AG20" s="18" t="n">
+        <v>21784849.2695</v>
+      </c>
+      <c r="AH20" s="18" t="n">
+        <v>-357282.4327</v>
+      </c>
+      <c r="AI20" s="18" t="n">
+        <v>-1668391.3316</v>
+      </c>
+      <c r="AJ20" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="18"/>
+      <c r="AL20" s="18" t="n">
+        <v>-38490.5586</v>
+      </c>
+      <c r="AM20" s="18"/>
+      <c r="AN20" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="18"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <f>M21</f>
+      </c>
+      <c r="B21" t="str">
+        <f>N21</f>
+      </c>
+      <c r="M21" t="s">
+        <v>70</v>
+      </c>
+      <c r="N21" t="s">
+        <v>37</v>
+      </c>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18" t="n">
+        <v>126412.44</v>
+      </c>
+      <c r="Y21" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="18" t="n">
+        <v>26340.7095</v>
+      </c>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="18" t="n">
+        <v>-214</v>
+      </c>
+      <c r="AC21" s="18"/>
+      <c r="AD21" s="18"/>
+      <c r="AE21" s="18"/>
+      <c r="AF21" s="18"/>
+      <c r="AG21" s="18"/>
+      <c r="AH21" s="18"/>
+      <c r="AI21" s="18" t="n">
+        <v>7000</v>
+      </c>
+      <c r="AJ21" s="18" t="n">
+        <v>766761</v>
+      </c>
+      <c r="AK21" s="18"/>
+      <c r="AL21" s="18" t="n">
+        <v>145260</v>
+      </c>
+      <c r="AM21" s="18"/>
+      <c r="AN21" s="18"/>
+      <c r="AO21" s="18"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <f>M22</f>
+      </c>
+      <c r="B22" t="str">
+        <f>N22</f>
+      </c>
+      <c r="M22" t="s">
+        <v>70</v>
+      </c>
+      <c r="N22" t="s">
+        <v>42</v>
+      </c>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18" t="n">
+        <v>97081713</v>
+      </c>
+      <c r="R22" s="18" t="n">
+        <v>120403082</v>
+      </c>
+      <c r="S22" s="18" t="n">
+        <v>26592653</v>
+      </c>
+      <c r="T22" s="18" t="n">
+        <v>10128538</v>
+      </c>
+      <c r="U22" s="18" t="n">
+        <v>41457729</v>
+      </c>
+      <c r="V22" s="18" t="n">
+        <v>96918078</v>
+      </c>
+      <c r="W22" s="18" t="n">
+        <v>262552204.25</v>
+      </c>
+      <c r="X22" s="18" t="n">
+        <v>380520751.6995</v>
+      </c>
+      <c r="Y22" s="18" t="n">
+        <v>906749691.5322</v>
+      </c>
+      <c r="Z22" s="18" t="n">
+        <v>928539334.3616</v>
+      </c>
+      <c r="AA22" s="18" t="n">
+        <v>479393206.3593</v>
+      </c>
+      <c r="AB22" s="18" t="n">
+        <v>617412886.7856</v>
+      </c>
+      <c r="AC22" s="18" t="n">
+        <v>338717214.58</v>
+      </c>
+      <c r="AD22" s="18" t="n">
+        <v>425786621.4575</v>
+      </c>
+      <c r="AE22" s="18" t="n">
+        <v>1005990642.1702</v>
+      </c>
+      <c r="AF22" s="18" t="n">
+        <v>1087371882.9611</v>
+      </c>
+      <c r="AG22" s="18" t="n">
+        <v>884309134.9526</v>
+      </c>
+      <c r="AH22" s="18" t="n">
+        <v>553606425.7365</v>
+      </c>
+      <c r="AI22" s="18" t="n">
+        <v>625233874.5673</v>
+      </c>
+      <c r="AJ22" s="18" t="n">
+        <v>644702563.6769</v>
+      </c>
+      <c r="AK22" s="18" t="n">
+        <v>434985946.8972</v>
+      </c>
+      <c r="AL22" s="18" t="n">
+        <v>269237956.2285</v>
+      </c>
+      <c r="AM22" s="18" t="n">
+        <v>454346066.8719</v>
+      </c>
+      <c r="AN22" s="18" t="n">
+        <v>140826022.55</v>
+      </c>
+      <c r="AO22" s="18"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <f>M23</f>
+      </c>
+      <c r="B23" t="str">
+        <f>N23</f>
+      </c>
+      <c r="M23" t="s">
+        <v>71</v>
+      </c>
+      <c r="N23" t="s">
+        <v>39</v>
+      </c>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="18"/>
+      <c r="Z23" s="18" t="n">
+        <v>160702</v>
+      </c>
+      <c r="AA23" s="18" t="n">
+        <v>31996001</v>
+      </c>
+      <c r="AB23" s="18" t="n">
+        <v>24940006</v>
+      </c>
+      <c r="AC23" s="18" t="n">
+        <v>-13370.9199</v>
+      </c>
+      <c r="AD23" s="18" t="n">
+        <v>39539396</v>
+      </c>
+      <c r="AE23" s="18" t="n">
+        <v>97687591.73</v>
+      </c>
+      <c r="AF23" s="18" t="n">
+        <v>56459981.6563</v>
+      </c>
+      <c r="AG23" s="18" t="n">
+        <v>30771466.7656</v>
+      </c>
+      <c r="AH23" s="18" t="n">
+        <v>9852520.0782</v>
+      </c>
+      <c r="AI23" s="18" t="n">
+        <v>3624546.7656</v>
+      </c>
+      <c r="AJ23" s="18" t="n">
+        <v>3500476.4063</v>
+      </c>
+      <c r="AK23" s="18" t="n">
+        <v>1856334.9687</v>
+      </c>
+      <c r="AL23" s="18" t="n">
+        <v>-2601366.0889</v>
+      </c>
+      <c r="AM23" s="18"/>
+      <c r="AN23" s="18"/>
+      <c r="AO23" s="18"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <f>M24</f>
+      </c>
+      <c r="B24" t="str">
+        <f>N24</f>
+      </c>
+      <c r="M24" t="s">
+        <v>71</v>
+      </c>
+      <c r="N24" t="s">
+        <v>36</v>
+      </c>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18" t="n">
+        <v>110173392</v>
+      </c>
+      <c r="U24" s="18" t="n">
+        <v>112169083</v>
+      </c>
+      <c r="V24" s="18" t="n">
+        <v>225661614</v>
+      </c>
+      <c r="W24" s="18" t="n">
+        <v>439988995.39</v>
+      </c>
+      <c r="X24" s="18" t="n">
+        <v>748883443.07</v>
+      </c>
+      <c r="Y24" s="18" t="n">
+        <v>812843829.21</v>
+      </c>
+      <c r="Z24" s="18" t="n">
+        <v>762695490.9611</v>
+      </c>
+      <c r="AA24" s="18" t="n">
+        <v>777624287.725</v>
+      </c>
+      <c r="AB24" s="18" t="n">
+        <v>1075014490.9697</v>
+      </c>
+      <c r="AC24" s="18" t="n">
+        <v>888542557.8201</v>
+      </c>
+      <c r="AD24" s="18" t="n">
+        <v>776830350.66</v>
+      </c>
+      <c r="AE24" s="18" t="n">
+        <v>776164001.4618</v>
+      </c>
+      <c r="AF24" s="18" t="n">
+        <v>541757630.127</v>
+      </c>
+      <c r="AG24" s="18" t="n">
+        <v>435716957.814</v>
+      </c>
+      <c r="AH24" s="18" t="n">
+        <v>202012770.54</v>
+      </c>
+      <c r="AI24" s="18" t="n">
+        <v>130915509.07</v>
+      </c>
+      <c r="AJ24" s="18" t="n">
+        <v>363921146.38</v>
+      </c>
+      <c r="AK24" s="18" t="n">
+        <v>211419658.32</v>
+      </c>
+      <c r="AL24" s="18" t="n">
+        <v>213043621.85</v>
+      </c>
+      <c r="AM24" s="18" t="n">
+        <v>344270842.9</v>
+      </c>
+      <c r="AN24" s="18" t="n">
+        <v>96033687.22</v>
+      </c>
+      <c r="AO24" s="18"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <f>M25</f>
+      </c>
+      <c r="B25" t="str">
+        <f>N25</f>
+      </c>
+      <c r="M25" t="s">
+        <v>71</v>
+      </c>
+      <c r="N25" t="s">
+        <v>40</v>
+      </c>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="18"/>
+      <c r="X25" s="18" t="n">
+        <v>7751000</v>
+      </c>
+      <c r="Y25" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="18" t="n">
+        <v>-465559.7188</v>
+      </c>
+      <c r="AA25" s="18" t="n">
+        <v>-195015.5156</v>
+      </c>
+      <c r="AB25" s="18"/>
+      <c r="AC25" s="18"/>
+      <c r="AD25" s="18"/>
+      <c r="AE25" s="18"/>
+      <c r="AF25" s="18"/>
+      <c r="AG25" s="18"/>
+      <c r="AH25" s="18"/>
+      <c r="AI25" s="18"/>
+      <c r="AJ25" s="18"/>
+      <c r="AK25" s="18"/>
+      <c r="AL25" s="18"/>
+      <c r="AM25" s="18"/>
+      <c r="AN25" s="18"/>
+      <c r="AO25" s="18"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <f>M26</f>
+      </c>
+      <c r="B26" t="str">
+        <f>N26</f>
+      </c>
+      <c r="M26" t="s">
+        <v>71</v>
+      </c>
+      <c r="N26" t="s">
+        <v>41</v>
+      </c>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="18" t="n">
+        <v>1623876</v>
+      </c>
+      <c r="V26" s="18" t="n">
+        <v>2342602</v>
+      </c>
+      <c r="W26" s="18" t="n">
+        <v>140031233.3125</v>
+      </c>
+      <c r="X26" s="18" t="n">
+        <v>4167284.9732</v>
+      </c>
+      <c r="Y26" s="18" t="n">
+        <v>-23661488.6811</v>
+      </c>
+      <c r="Z26" s="18" t="n">
+        <v>9246012.69</v>
+      </c>
+      <c r="AA26" s="18" t="n">
+        <v>5063314.4372</v>
+      </c>
+      <c r="AB26" s="18" t="n">
+        <v>21689077.71</v>
+      </c>
+      <c r="AC26" s="18" t="n">
+        <v>-47155.5355000009</v>
+      </c>
+      <c r="AD26" s="18" t="n">
+        <v>16454705.6698</v>
+      </c>
+      <c r="AE26" s="18" t="n">
+        <v>14064413.5796</v>
+      </c>
+      <c r="AF26" s="18" t="n">
+        <v>12438322.828</v>
+      </c>
+      <c r="AG26" s="18" t="n">
+        <v>7784970.77</v>
+      </c>
+      <c r="AH26" s="18" t="n">
+        <v>9794739.8438</v>
+      </c>
+      <c r="AI26" s="18" t="n">
+        <v>12592560.2149</v>
+      </c>
+      <c r="AJ26" s="18" t="n">
+        <v>6329082.0117</v>
+      </c>
+      <c r="AK26" s="18" t="n">
+        <v>12450706.25</v>
+      </c>
+      <c r="AL26" s="18" t="n">
+        <v>6571599.0044</v>
+      </c>
+      <c r="AM26" s="18" t="n">
+        <v>10783226.7461</v>
+      </c>
+      <c r="AN26" s="18" t="n">
+        <v>11068191.97</v>
+      </c>
+      <c r="AO26" s="18"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <f>M27</f>
+      </c>
+      <c r="B27" t="str">
+        <f>N27</f>
+      </c>
+      <c r="M27" t="s">
+        <v>71</v>
+      </c>
+      <c r="N27" t="s">
+        <v>42</v>
+      </c>
+      <c r="O27" s="18" t="n">
+        <v>1127793</v>
+      </c>
+      <c r="P27" s="18" t="n">
+        <v>27855907</v>
+      </c>
+      <c r="Q27" s="18" t="n">
+        <v>1236000</v>
+      </c>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18" t="n">
+        <v>88078</v>
+      </c>
+      <c r="T27" s="18" t="n">
+        <v>106615726</v>
+      </c>
+      <c r="U27" s="18" t="n">
+        <v>47265089</v>
+      </c>
+      <c r="V27" s="18" t="n">
+        <v>33418142</v>
+      </c>
+      <c r="W27" s="18" t="n">
+        <v>135374998.5312</v>
+      </c>
+      <c r="X27" s="18" t="n">
+        <v>70316158.5</v>
+      </c>
+      <c r="Y27" s="18" t="n">
+        <v>93245501.9562</v>
+      </c>
+      <c r="Z27" s="18" t="n">
+        <v>30353960.1325</v>
+      </c>
+      <c r="AA27" s="18" t="n">
+        <v>56670439.9375</v>
+      </c>
+      <c r="AB27" s="18" t="n">
+        <v>458892206.9039</v>
+      </c>
+      <c r="AC27" s="18" t="n">
+        <v>707760819.865</v>
+      </c>
+      <c r="AD27" s="18" t="n">
+        <v>544956491.52</v>
+      </c>
+      <c r="AE27" s="18" t="n">
+        <v>523873700.985</v>
+      </c>
+      <c r="AF27" s="18" t="n">
+        <v>829959882.5082</v>
+      </c>
+      <c r="AG27" s="18" t="n">
+        <v>933628392.378</v>
+      </c>
+      <c r="AH27" s="18" t="n">
+        <v>514918920.486</v>
+      </c>
+      <c r="AI27" s="18" t="n">
+        <v>21078515.8825</v>
+      </c>
+      <c r="AJ27" s="18" t="n">
+        <v>-6173011.6671</v>
+      </c>
+      <c r="AK27" s="18" t="n">
+        <v>177274717.8642</v>
+      </c>
+      <c r="AL27" s="18" t="n">
+        <v>-28340679.9834</v>
+      </c>
+      <c r="AM27" s="18" t="n">
+        <v>29008768.0938</v>
+      </c>
+      <c r="AN27" s="18" t="n">
+        <v>59057366.08</v>
+      </c>
+      <c r="AO27" s="18"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <f>M28</f>
+      </c>
+      <c r="B28" t="str">
+        <f>N28</f>
+      </c>
+      <c r="M28" t="s">
+        <v>72</v>
+      </c>
+      <c r="N28" t="s">
+        <v>39</v>
+      </c>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="18"/>
+      <c r="X28" s="18"/>
+      <c r="Y28" s="18"/>
+      <c r="Z28" s="18" t="n">
+        <v>333933</v>
+      </c>
+      <c r="AA28" s="18" t="n">
+        <v>14187611.7188</v>
+      </c>
+      <c r="AB28" s="18" t="n">
+        <v>48947927</v>
+      </c>
+      <c r="AC28" s="18" t="n">
+        <v>503857746.9375</v>
+      </c>
+      <c r="AD28" s="18" t="n">
+        <v>241021834.1575</v>
+      </c>
+      <c r="AE28" s="18" t="n">
+        <v>97569494.8885</v>
+      </c>
+      <c r="AF28" s="18" t="n">
+        <v>61934315.7998</v>
+      </c>
+      <c r="AG28" s="18" t="n">
+        <v>5647033.5246</v>
+      </c>
+      <c r="AH28" s="18" t="n">
+        <v>-15568289.9002</v>
+      </c>
+      <c r="AI28" s="18" t="n">
+        <v>-10966649.2238</v>
+      </c>
+      <c r="AJ28" s="18" t="n">
+        <v>-6675426.4141</v>
+      </c>
+      <c r="AK28" s="18" t="n">
+        <v>-228948.4898</v>
+      </c>
+      <c r="AL28" s="18" t="n">
+        <v>-639049.6524</v>
+      </c>
+      <c r="AM28" s="18" t="n">
+        <v>-130437.25</v>
+      </c>
+      <c r="AN28" s="18"/>
+      <c r="AO28" s="18"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <f>M29</f>
+      </c>
+      <c r="B29" t="str">
+        <f>N29</f>
+      </c>
+      <c r="M29" t="s">
+        <v>72</v>
+      </c>
+      <c r="N29" t="s">
+        <v>36</v>
+      </c>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18" t="n">
+        <v>7542155</v>
+      </c>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18" t="n">
+        <v>60346980</v>
+      </c>
+      <c r="T29" s="18" t="n">
+        <v>91551966</v>
+      </c>
+      <c r="U29" s="18" t="n">
+        <v>78227361</v>
+      </c>
+      <c r="V29" s="18" t="n">
+        <v>2291435</v>
+      </c>
+      <c r="W29" s="18" t="n">
+        <v>4456032</v>
+      </c>
+      <c r="X29" s="18" t="n">
+        <v>26038622.25</v>
+      </c>
+      <c r="Y29" s="18" t="n">
+        <v>11963305.75</v>
+      </c>
+      <c r="Z29" s="18" t="n">
+        <v>287043169.6094</v>
+      </c>
+      <c r="AA29" s="18" t="n">
+        <v>449165974.3603</v>
+      </c>
+      <c r="AB29" s="18" t="n">
+        <v>750906792.5352</v>
+      </c>
+      <c r="AC29" s="18" t="n">
+        <v>705703531.2394</v>
+      </c>
+      <c r="AD29" s="18" t="n">
+        <v>627656148.17</v>
+      </c>
+      <c r="AE29" s="18" t="n">
+        <v>454769466.62</v>
+      </c>
+      <c r="AF29" s="18" t="n">
+        <v>393258415.11</v>
+      </c>
+      <c r="AG29" s="18" t="n">
+        <v>705069341.8282</v>
+      </c>
+      <c r="AH29" s="18" t="n">
+        <v>885334071.58</v>
+      </c>
+      <c r="AI29" s="18" t="n">
+        <v>909058263.5</v>
+      </c>
+      <c r="AJ29" s="18" t="n">
+        <v>1202493409.8</v>
+      </c>
+      <c r="AK29" s="18" t="n">
+        <v>401004179.1</v>
+      </c>
+      <c r="AL29" s="18" t="n">
+        <v>347085099.16</v>
+      </c>
+      <c r="AM29" s="18" t="n">
+        <v>282353410.08</v>
+      </c>
+      <c r="AN29" s="18" t="n">
+        <v>244752832.43</v>
+      </c>
+      <c r="AO29" s="18"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <f>M30</f>
+      </c>
+      <c r="B30" t="str">
+        <f>N30</f>
+      </c>
+      <c r="M30" t="s">
+        <v>72</v>
+      </c>
+      <c r="N30" t="s">
+        <v>41</v>
+      </c>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="18" t="n">
+        <v>27133796</v>
+      </c>
+      <c r="U30" s="18" t="n">
+        <v>37475494</v>
+      </c>
+      <c r="V30" s="18" t="n">
+        <v>48833391.5</v>
+      </c>
+      <c r="W30" s="18" t="n">
+        <v>6877611.1565</v>
+      </c>
+      <c r="X30" s="18" t="n">
+        <v>14680232.5841</v>
+      </c>
+      <c r="Y30" s="18" t="n">
+        <v>112947821.3311</v>
+      </c>
+      <c r="Z30" s="18" t="n">
+        <v>147010153.9059</v>
+      </c>
+      <c r="AA30" s="18" t="n">
+        <v>97195023.3421</v>
+      </c>
+      <c r="AB30" s="18" t="n">
+        <v>64196094.4415</v>
+      </c>
+      <c r="AC30" s="18" t="n">
+        <v>83078010.9476</v>
+      </c>
+      <c r="AD30" s="18" t="n">
+        <v>11558366.3556</v>
+      </c>
+      <c r="AE30" s="18" t="n">
+        <v>18869510.1844</v>
+      </c>
+      <c r="AF30" s="18" t="n">
+        <v>791221.5713</v>
+      </c>
+      <c r="AG30" s="18" t="n">
+        <v>11697894.3292</v>
+      </c>
+      <c r="AH30" s="18" t="n">
+        <v>12488885.2812</v>
+      </c>
+      <c r="AI30" s="18" t="n">
+        <v>14237805.7852</v>
+      </c>
+      <c r="AJ30" s="18" t="n">
+        <v>13785079.1598</v>
+      </c>
+      <c r="AK30" s="18" t="n">
+        <v>5362833.4395</v>
+      </c>
+      <c r="AL30" s="18" t="n">
+        <v>-853.17</v>
+      </c>
+      <c r="AM30" s="18" t="n">
+        <v>-18318.9499</v>
+      </c>
+      <c r="AN30" s="18" t="n">
+        <v>-445814.86</v>
+      </c>
+      <c r="AO30" s="18"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <f>M31</f>
+      </c>
+      <c r="B31" t="str">
+        <f>N31</f>
+      </c>
+      <c r="M31" t="s">
+        <v>72</v>
+      </c>
+      <c r="N31" t="s">
+        <v>37</v>
+      </c>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="18"/>
+      <c r="W31" s="18"/>
+      <c r="X31" s="18" t="n">
+        <v>99999</v>
+      </c>
+      <c r="Y31" s="18" t="n">
+        <v>21887.5</v>
+      </c>
+      <c r="Z31" s="18"/>
+      <c r="AA31" s="18"/>
+      <c r="AB31" s="18" t="n">
+        <v>8088</v>
+      </c>
+      <c r="AC31" s="18"/>
+      <c r="AD31" s="18"/>
+      <c r="AE31" s="18"/>
+      <c r="AF31" s="18"/>
+      <c r="AG31" s="18"/>
+      <c r="AH31" s="18"/>
+      <c r="AI31" s="18"/>
+      <c r="AJ31" s="18"/>
+      <c r="AK31" s="18"/>
+      <c r="AL31" s="18"/>
+      <c r="AM31" s="18"/>
+      <c r="AN31" s="18"/>
+      <c r="AO31" s="18"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <f>M32</f>
+      </c>
+      <c r="B32" t="str">
+        <f>N32</f>
+      </c>
+      <c r="M32" t="s">
+        <v>72</v>
+      </c>
+      <c r="N32" t="s">
+        <v>42</v>
+      </c>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18" t="n">
+        <v>147179069</v>
+      </c>
+      <c r="Q32" s="18" t="n">
+        <v>240833528</v>
+      </c>
+      <c r="R32" s="18" t="n">
+        <v>237932687</v>
+      </c>
+      <c r="S32" s="18" t="n">
+        <v>293860968</v>
+      </c>
+      <c r="T32" s="18" t="n">
+        <v>219411138</v>
+      </c>
+      <c r="U32" s="18" t="n">
+        <v>74387752</v>
+      </c>
+      <c r="V32" s="18" t="n">
+        <v>24814535.4063</v>
+      </c>
+      <c r="W32" s="18" t="n">
+        <v>562924092.211</v>
+      </c>
+      <c r="X32" s="18" t="n">
+        <v>509237674.0072</v>
+      </c>
+      <c r="Y32" s="18" t="n">
+        <v>822312084.816</v>
+      </c>
+      <c r="Z32" s="18" t="n">
+        <v>1015701229.2664</v>
+      </c>
+      <c r="AA32" s="18" t="n">
+        <v>1038666720.2272</v>
+      </c>
+      <c r="AB32" s="18" t="n">
+        <v>890830046.8232</v>
+      </c>
+      <c r="AC32" s="18" t="n">
+        <v>880665955.9435</v>
+      </c>
+      <c r="AD32" s="18" t="n">
+        <v>1293316235.4017</v>
+      </c>
+      <c r="AE32" s="18" t="n">
+        <v>786538272.4319</v>
+      </c>
+      <c r="AF32" s="18" t="n">
+        <v>852308119.8246</v>
+      </c>
+      <c r="AG32" s="18" t="n">
+        <v>823111726.1221</v>
+      </c>
+      <c r="AH32" s="18" t="n">
+        <v>2150041813.3655</v>
+      </c>
+      <c r="AI32" s="18" t="n">
+        <v>2483730922.9807</v>
+      </c>
+      <c r="AJ32" s="18" t="n">
+        <v>2925182174.0855</v>
+      </c>
+      <c r="AK32" s="18" t="n">
+        <v>3049601467.4254</v>
+      </c>
+      <c r="AL32" s="18" t="n">
+        <v>2246457684.4648</v>
+      </c>
+      <c r="AM32" s="18" t="n">
+        <v>2104932840.754</v>
+      </c>
+      <c r="AN32" s="18" t="n">
+        <v>1209928037.1</v>
+      </c>
+      <c r="AO32" s="18"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <f>M33</f>
+      </c>
+      <c r="B33" t="str">
+        <f>N33</f>
+      </c>
+      <c r="M33"/>
+      <c r="N33" t="s">
+        <v>39</v>
+      </c>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="18"/>
+      <c r="U33" s="18"/>
+      <c r="V33" s="18"/>
+      <c r="W33" s="18"/>
+      <c r="X33" s="18"/>
+      <c r="Y33" s="18"/>
+      <c r="Z33" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="18"/>
+      <c r="AH33" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="18"/>
+      <c r="AJ33" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK33" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="18"/>
+      <c r="AM33" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN33" s="18"/>
+      <c r="AO33" s="18"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <f>M34</f>
+      </c>
+      <c r="B34" t="str">
+        <f>N34</f>
+      </c>
+      <c r="M34"/>
+      <c r="N34" t="s">
+        <v>36</v>
+      </c>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="18" t="n">
+        <v>369132514</v>
+      </c>
+      <c r="T34" s="18" t="n">
+        <v>431764039</v>
+      </c>
+      <c r="U34" s="18" t="n">
+        <v>42014424</v>
+      </c>
+      <c r="V34" s="18" t="n">
+        <v>169822033</v>
+      </c>
+      <c r="W34" s="18" t="n">
+        <v>312492389</v>
+      </c>
+      <c r="X34" s="18" t="n">
+        <v>52709109</v>
+      </c>
+      <c r="Y34" s="18" t="n">
+        <v>5995220.14</v>
+      </c>
+      <c r="Z34" s="18" t="n">
+        <v>-6556351.75</v>
+      </c>
+      <c r="AA34" s="18" t="n">
+        <v>-4358185.0352</v>
+      </c>
+      <c r="AB34" s="18" t="n">
+        <v>-6200942.8438</v>
+      </c>
+      <c r="AC34" s="18" t="n">
+        <v>-70606.81</v>
+      </c>
+      <c r="AD34" s="18" t="n">
+        <v>-112730.05</v>
+      </c>
+      <c r="AE34" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="18"/>
+      <c r="AG34" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="18"/>
+      <c r="AK34" s="18"/>
+      <c r="AL34" s="18"/>
+      <c r="AM34" s="18"/>
+      <c r="AN34" s="18"/>
+      <c r="AO34" s="18"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <f>M35</f>
+      </c>
+      <c r="B35" t="str">
+        <f>N35</f>
+      </c>
+      <c r="M35"/>
+      <c r="N35" t="s">
+        <v>41</v>
+      </c>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" s="18" t="n">
+        <v>42311055</v>
+      </c>
+      <c r="V35" s="18" t="n">
+        <v>127216723</v>
+      </c>
+      <c r="W35" s="18" t="n">
+        <v>39572628.07</v>
+      </c>
+      <c r="X35" s="18" t="n">
+        <v>989323.5556</v>
+      </c>
+      <c r="Y35" s="18" t="n">
+        <v>624171.8711</v>
+      </c>
+      <c r="Z35" s="18" t="n">
+        <v>74724.8296</v>
+      </c>
+      <c r="AA35" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="18" t="n">
+        <v>-96384.4297</v>
+      </c>
+      <c r="AC35" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="18" t="n">
+        <v>-37628.78</v>
+      </c>
+      <c r="AE35" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK35" s="18"/>
+      <c r="AL35" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM35" s="18"/>
+      <c r="AN35" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO35" s="18"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <f>M36</f>
+      </c>
+      <c r="B36" t="str">
+        <f>N36</f>
+      </c>
+      <c r="M36"/>
+      <c r="N36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O36" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" s="18" t="n">
+        <v>76869347</v>
+      </c>
+      <c r="Q36" s="18" t="n">
+        <v>52081713</v>
+      </c>
+      <c r="R36" s="18" t="n">
+        <v>61871409</v>
+      </c>
+      <c r="S36" s="18" t="n">
+        <v>125849455</v>
+      </c>
+      <c r="T36" s="18" t="n">
+        <v>379586155</v>
+      </c>
+      <c r="U36" s="18" t="n">
+        <v>676745065</v>
+      </c>
+      <c r="V36" s="18" t="n">
+        <v>921811261.76</v>
+      </c>
+      <c r="W36" s="18" t="n">
+        <v>90607906.4562</v>
+      </c>
+      <c r="X36" s="18" t="n">
+        <v>102100492.3125</v>
+      </c>
+      <c r="Y36" s="18" t="n">
+        <v>70247977.9834</v>
+      </c>
+      <c r="Z36" s="18" t="n">
+        <v>-6343513.7687</v>
+      </c>
+      <c r="AA36" s="18" t="n">
+        <v>-9837481.5476</v>
+      </c>
+      <c r="AB36" s="18" t="n">
+        <v>-3384554.9629</v>
+      </c>
+      <c r="AC36" s="18" t="n">
+        <v>-2595709.3</v>
+      </c>
+      <c r="AD36" s="18" t="n">
+        <v>-938183.16</v>
+      </c>
+      <c r="AE36" s="18" t="n">
+        <v>39119541.18</v>
+      </c>
+      <c r="AF36" s="18" t="n">
+        <v>6990605.2074</v>
+      </c>
+      <c r="AG36" s="18" t="n">
+        <v>-3399514.7298</v>
+      </c>
+      <c r="AH36" s="18" t="n">
+        <v>24171453.25</v>
+      </c>
+      <c r="AI36" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK36" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL36" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM36" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN36" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO36" s="18"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <f>M37</f>
+      </c>
+      <c r="B37" t="str">
+        <f>N37</f>
+      </c>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37" s="18" t="n">
+        <v>16038300</v>
+      </c>
+      <c r="P37" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="18"/>
+      <c r="U37" s="18"/>
+      <c r="V37" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="18"/>
+      <c r="AI37" s="18"/>
+      <c r="AJ37" s="18"/>
+      <c r="AK37" s="18"/>
+      <c r="AL37" s="18"/>
+      <c r="AM37" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN37" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO37" s="18"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <f>M38</f>
+      </c>
+      <c r="B38" t="str">
+        <f>N38</f>
+      </c>
+      <c r="M38" t="s">
+        <v>32</v>
+      </c>
+      <c r="N38" t="s">
+        <v>43</v>
+      </c>
+      <c r="O38" s="18" t="str">
+        <f>Sum(O2:O37)</f>
+      </c>
+      <c r="P38" s="18" t="str">
+        <f>Sum(P2:P37)</f>
+      </c>
+      <c r="Q38" s="18" t="str">
+        <f>Sum(Q2:Q37)</f>
+      </c>
+      <c r="R38" s="18" t="str">
+        <f>Sum(R2:R37)</f>
+      </c>
+      <c r="S38" s="18" t="str">
+        <f>Sum(S2:S37)</f>
+      </c>
+      <c r="T38" s="18" t="str">
+        <f>Sum(T2:T37)</f>
+      </c>
+      <c r="U38" s="18" t="str">
+        <f>Sum(U2:U37)</f>
+      </c>
+      <c r="V38" s="18" t="str">
+        <f>Sum(V2:V37)</f>
+      </c>
+      <c r="W38" s="18" t="str">
+        <f>Sum(W2:W37)</f>
+      </c>
+      <c r="X38" s="18" t="str">
+        <f>Sum(X2:X37)</f>
+      </c>
+      <c r="Y38" s="18" t="str">
+        <f>Sum(Y2:Y37)</f>
+      </c>
+      <c r="Z38" s="18" t="str">
+        <f>Sum(Z2:Z37)</f>
+      </c>
+      <c r="AA38" s="18" t="str">
+        <f>Sum(AA2:AA37)</f>
+      </c>
+      <c r="AB38" s="18" t="str">
+        <f>Sum(AB2:AB37)</f>
+      </c>
+      <c r="AC38" s="18" t="str">
+        <f>Sum(AC2:AC37)</f>
+      </c>
+      <c r="AD38" s="18" t="str">
+        <f>Sum(AD2:AD37)</f>
+      </c>
+      <c r="AE38" s="18" t="str">
+        <f>Sum(AE2:AE37)</f>
+      </c>
+      <c r="AF38" s="18" t="str">
+        <f>Sum(AF2:AF37)</f>
+      </c>
+      <c r="AG38" s="18" t="str">
+        <f>Sum(AG2:AG37)</f>
+      </c>
+      <c r="AH38" s="18" t="str">
+        <f>Sum(AH2:AH37)</f>
+      </c>
+      <c r="AI38" s="18" t="str">
+        <f>Sum(AI2:AI37)</f>
+      </c>
+      <c r="AJ38" s="18" t="str">
+        <f>Sum(AJ2:AJ37)</f>
+      </c>
+      <c r="AK38" s="18" t="str">
+        <f>Sum(AK2:AK37)</f>
+      </c>
+      <c r="AL38" s="18" t="str">
+        <f>Sum(AL2:AL37)</f>
+      </c>
+      <c r="AM38" s="18" t="str">
+        <f>Sum(AM2:AM37)</f>
+      </c>
+      <c r="AN38" s="18" t="str">
+        <f>Sum(AN2:AN37)</f>
+      </c>
+      <c r="AO38" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/PBL/PBL_Contracts.xlsx
+++ b/Output/PBL/PBL_Contracts.xlsx
@@ -394,24 +394,24 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="18">
-    <numFmt numFmtId="193" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="194" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="197" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="198" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="199" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="210" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="211" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="214" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="215" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="216" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="200" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="201" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="202" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="203" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="204" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="205" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="206" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="207" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="179" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="217" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="218" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="219" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="220" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="221" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="208" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="182" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="196" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="208" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="212" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="213" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="222" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -449,25 +449,25 @@
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="193" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="194" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="197" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="210" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="211" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="214" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="198" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="199" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="215" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="216" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="200" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="201" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="202" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="203" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="205" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="206" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="207" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="217" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="218" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="219" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="220" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="221" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="208" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="208" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="212" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="213" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="222" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
